--- a/literature_research/FS_scopus/FS_farm.xlsx
+++ b/literature_research/FS_scopus/FS_farm.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H77"/>
+  <dimension ref="A1:H65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -512,7 +512,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>How trust is lost: the Food Systems Summit 2021 and the delegitimation of UN food governance</t>
+          <t>Biocultural Elements and Multifunctionality of Cassava Flour Production in Agrarian Reform Settlements in the Extreme South of Bahia, Brazil</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -520,7 +520,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Social movements see participation formats of international organizations (IOs) with suspicion. They increasingly retreat from cooperation to contest IOs from the outside, because they fear co-optation without real policy impact. However, the Food and Agricultural Organization (FAO) was an exception to this trend because its opening up was seen as long-term dialogue facilitating discussions about the nature of food production, and because it created credible institutional mechanisms that were trusted by activists to give influence to farmers and peasant movements. Therefore, the food sovereignty movement participated within the FAO framework in a remarkably institutionalized way throughout the 2010s. But in 2019, when the United Nations (UN) announced to hold a food systems summit (United Nations Food Systems Summit (UNFSS)), this changed dramatically. The food sovereignty movement, many non-governmental organizations (NGOs), and eventually scientists, decided to boycott the summit, instead organizing an alternative Peoples’ Summit, and withdrawing from long-held institutional roles in the FAO. How can this be explained? This article traces the process from the announcement of the UNFSS to its implementation, stressing how institutional trust was damaged by several decisions in the process that undermined the good faith of activists. As we show in detail, the circumvention of established institutional mechanisms, and the feeling of betrayal on the side of the movement, was decisive for losing institutional trust. Importantly, a mixture of substantive and institutional changes in the context of UNFSS not only undermined the movement’s trust into the integrity and ability of the summit organizers, but thereby also provoked movement efforts to delegitimize UN food governance at large. © The Author(s) 2023.</t>
+          <t>Artisanal manufacture of cassava flour in Brazil has a cultural and biological framework developed over generations of traditional rural workers. We conducted a broad study of flour production in the Extreme South of Bahia in 2019 across 30 rural settlements in 11 municipalities, where we evaluated 107 flour producers. Our results present the socioeconomic profiles of local farmers, cassava varieties, types of flour, particularities of production, and characteristics of commercialization. We highlight the multiple functions of artisanal production of cassava flour, especially as related to social and economic maintenance of households, the promotion of food security, and sovereignty within and around the communities, and the conservation of agrobiodiversity in the rural landscape. © The Author(s), under exclusive licence to Springer Science+Business Media, LLC, part of Springer Nature 2024.</t>
         </is>
       </c>
       <c r="E3" t="n">
@@ -548,15 +548,15 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Biocultural Elements and Multifunctionality of Cassava Flour Production in Agrarian Reform Settlements in the Extreme South of Bahia, Brazil</t>
+          <t>Examining the Criminal Aspects of the Indonesian Plant Varieties Regime and Farmer Protection for Food Sovereignty</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Artisanal manufacture of cassava flour in Brazil has a cultural and biological framework developed over generations of traditional rural workers. We conducted a broad study of flour production in the Extreme South of Bahia in 2019 across 30 rural settlements in 11 municipalities, where we evaluated 107 flour producers. Our results present the socioeconomic profiles of local farmers, cassava varieties, types of flour, particularities of production, and characteristics of commercialization. We highlight the multiple functions of artisanal production of cassava flour, especially as related to social and economic maintenance of households, the promotion of food security, and sovereignty within and around the communities, and the conservation of agrobiodiversity in the rural landscape. © The Author(s), under exclusive licence to Springer Science+Business Media, LLC, part of Springer Nature 2024.</t>
+          <t>This research investigates the Plant Varieties Regime's role in safeguarding farmers’ rights in plant development and cultivation in Indonesia. Specifically, it scrutinizes criminal provisions concerning farmers accused of producing seeds without the right holder's consent, as evident in multiple court decisions. These verdicts have ignited legal debates that conflict with the principles of food sovereignty. Given that nearly 90% of corn plants are cultivated through traditional farmer knowledge, the increasing dependence on the seed industry disrupts agricultural practices passed down through generations. The Plant Variety Protection Act (PVP Act) inadvertently encourages seed industry monopolization. This paper advocates a coherent approach in compliance with Article 27(2) of the 1945 Constitution to address these legal issues and establish a just legal framework. The primary legal discourse centers on equitable protection, necessitating a re-evaluation of the PVP Law, which is perceived as restricting plant development opportunities and discriminating against farmers. Farmers, as stewards of seed development and livelihood, should not face criminal charges encroaching upon their rights. Employing a normative methodology involving statutory, conceptual, and case analyses, this study examines the criminal aspects and legal protection of farmers' rights in corn seed cultivation. Ultimately, the paper recommends revising the PVP Law, emphasizing the importance of coherent legal thinking when shaping criminal policies. On a practical level, it calls for collaborative efforts among stakeholders to bolster agricultural sovereignty, particularly in the corn sector, by prioritizing farmers’ rights. In summary, this research aims to provide recommendations for enhancing farmers' protection against the criminal provisions outlined in the PVP Act, which holds a pivotal role in shielding farmers engaged in corn seed cultivation. © 2023 by Author(s).</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -584,15 +584,15 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Examining the Criminal Aspects of the Indonesian Plant Varieties Regime and Farmer Protection for Food Sovereignty</t>
+          <t>Sustainable farm work in agroecology: how do systemic factors matter?</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>This research investigates the Plant Varieties Regime's role in safeguarding farmers’ rights in plant development and cultivation in Indonesia. Specifically, it scrutinizes criminal provisions concerning farmers accused of producing seeds without the right holder's consent, as evident in multiple court decisions. These verdicts have ignited legal debates that conflict with the principles of food sovereignty. Given that nearly 90% of corn plants are cultivated through traditional farmer knowledge, the increasing dependence on the seed industry disrupts agricultural practices passed down through generations. The Plant Variety Protection Act (PVP Act) inadvertently encourages seed industry monopolization. This paper advocates a coherent approach in compliance with Article 27(2) of the 1945 Constitution to address these legal issues and establish a just legal framework. The primary legal discourse centers on equitable protection, necessitating a re-evaluation of the PVP Law, which is perceived as restricting plant development opportunities and discriminating against farmers. Farmers, as stewards of seed development and livelihood, should not face criminal charges encroaching upon their rights. Employing a normative methodology involving statutory, conceptual, and case analyses, this study examines the criminal aspects and legal protection of farmers' rights in corn seed cultivation. Ultimately, the paper recommends revising the PVP Law, emphasizing the importance of coherent legal thinking when shaping criminal policies. On a practical level, it calls for collaborative efforts among stakeholders to bolster agricultural sovereignty, particularly in the corn sector, by prioritizing farmers’ rights. In summary, this research aims to provide recommendations for enhancing farmers' protection against the criminal provisions outlined in the PVP Act, which holds a pivotal role in shielding farmers engaged in corn seed cultivation. © 2023 by Author(s).</t>
+          <t>Agroecological farming is widely considered to reconcile improved working and living conditions of farmers while promoting social, economic, and ecological sustainability. However, most existing research primarily focuses on relatively narrow trade-offs between workload, economic and ecological outcomes at farm level and overlooks the critical role of contextual factors. This article conducts a critical literature review on the complex nature of agroecological farm work and proposes the holistic concept of sustainable farm work (SFW) in agroecology together with a heuristic evaluation framework. The latter was applied to ten case studies to test its relevance, affirming positive outcomes of agroecology on SFW, such as improved food sovereignty, biodiversity conservation, and social inclusiveness, but also showing trade-offs, including increased workload and potential yield reductions. Further, results show that contextual factors, such as policy support, market regulation, and access to resources, heavily influence the impact of agroecological practices on SFW. This article strongly argues for the importance of a holistic understanding of SFW and its contextualization within multiple socio-ecological system levels. The proposed framework establishes clear relationships between agroecology and SFW. An explicit recognition of these multidimensional relationships is essential for maximizing positive outcomes of agroecology in different contexts and fostering SFW. On a theoretical level, this research concludes that, from a holistic perspective, work is an entry point to studying the potential of agroecology to drive a sustainable agroecological transition in economic, social, and ecological terms. © The Author(s) 2024.</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -620,15 +620,15 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Sustainable farm work in agroecology: how do systemic factors matter?</t>
+          <t>Food systems in depressed and contested agro-territories: Participatory Rural Appraisal in Odemira, Portugal</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Agroecological farming is widely considered to reconcile improved working and living conditions of farmers while promoting social, economic, and ecological sustainability. However, most existing research primarily focuses on relatively narrow trade-offs between workload, economic and ecological outcomes at farm level and overlooks the critical role of contextual factors. This article conducts a critical literature review on the complex nature of agroecological farm work and proposes the holistic concept of sustainable farm work (SFW) in agroecology together with a heuristic evaluation framework. The latter was applied to ten case studies to test its relevance, affirming positive outcomes of agroecology on SFW, such as improved food sovereignty, biodiversity conservation, and social inclusiveness, but also showing trade-offs, including increased workload and potential yield reductions. Further, results show that contextual factors, such as policy support, market regulation, and access to resources, heavily influence the impact of agroecological practices on SFW. This article strongly argues for the importance of a holistic understanding of SFW and its contextualization within multiple socio-ecological system levels. The proposed framework establishes clear relationships between agroecology and SFW. An explicit recognition of these multidimensional relationships is essential for maximizing positive outcomes of agroecology in different contexts and fostering SFW. On a theoretical level, this research concludes that, from a holistic perspective, work is an entry point to studying the potential of agroecology to drive a sustainable agroecological transition in economic, social, and ecological terms. © The Author(s) 2024.</t>
+          <t>Farming regions in Europe, particularly in the South, are increasingly feeling the effects of climate change due to factors such as drought, extreme weather events, and desertification, with severe consequences for food security and food sovereignty. Additionally, decades of rural mismanagement have left countless of these farming territories severely depressed as well as at the mercy of competition for their natural resources. This paper presents and discusses the results of a Participatory Rural Appraisal conducted in the region of Odemira, Southwest Portugal. Rooted in the frameworks of agroecology and food democracy, this mixed methodology aims to support people in multiply stressed agro-territories to diagnose the state of their food systems and agroecosystems from a democratic and ecological point of view and engage local actors in imagining fairer and healthier food futures for their regions. Local food actors were invited to identify and qualify the main problems in the region's food systems, complemented by an agroecological assessment of farm production systems. The results of the study confirm the status of Odemira as a depressed and contested agro-territory, whose social, economic, and ecological vulnerability is being compounded by the clash between the model of traditional smallholder farming and that of large-scale intensive agriculture. The study also shows the potential of sustainable farming practices as well as collaboration between the different food actors to support an agroecological transition in the region. However, to jointly realise food democracy and food system sustainability, the tensions resulting from the current political support for hyper-industrialisation and the lack of democratic, institutional, and legal mechanisms available to local actors will need to be addressed head-on. Copyright © 2023 Horstink, Schwemmlein and Encarnação.</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -656,7 +656,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Food systems in depressed and contested agro-territories: Participatory Rural Appraisal in Odemira, Portugal</t>
+          <t>Resilience processes and positioning of agroecological farmers in an urban horticultural fair in northwest Patagonia</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -664,7 +664,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Farming regions in Europe, particularly in the South, are increasingly feeling the effects of climate change due to factors such as drought, extreme weather events, and desertification, with severe consequences for food security and food sovereignty. Additionally, decades of rural mismanagement have left countless of these farming territories severely depressed as well as at the mercy of competition for their natural resources. This paper presents and discusses the results of a Participatory Rural Appraisal conducted in the region of Odemira, Southwest Portugal. Rooted in the frameworks of agroecology and food democracy, this mixed methodology aims to support people in multiply stressed agro-territories to diagnose the state of their food systems and agroecosystems from a democratic and ecological point of view and engage local actors in imagining fairer and healthier food futures for their regions. Local food actors were invited to identify and qualify the main problems in the region's food systems, complemented by an agroecological assessment of farm production systems. The results of the study confirm the status of Odemira as a depressed and contested agro-territory, whose social, economic, and ecological vulnerability is being compounded by the clash between the model of traditional smallholder farming and that of large-scale intensive agriculture. The study also shows the potential of sustainable farming practices as well as collaboration between the different food actors to support an agroecological transition in the region. However, to jointly realise food democracy and food system sustainability, the tensions resulting from the current political support for hyper-industrialisation and the lack of democratic, institutional, and legal mechanisms available to local actors will need to be addressed head-on. Copyright © 2023 Horstink, Schwemmlein and Encarnação.</t>
+          <t>Background: Horticultural fairs are spaces that promote regional agrobiodiversity, transmitting and recreating multiple knowledge and emotions between horticulturists and customers. The adaptive processes by which fairs are sustained over time in the face of socio-economic, climatic, and sanitary changes are still little known. Considering the principles of socio-environmental resilience, the aims of this research were: 1) to analyze the positionings of horticulturists that favor the process of resilience in the Free Fair of Family Farmers from Nahuel Huapi, San Carlos de Bariloche (Patagonia, Argentina) and 2) to reflect on the vulnerabilities and challenges faced by this fair for its sustainability over time. Methods: A qualitative study was carried out that included interviews, participant observation, and virtual ethnography. Results: One hundred and eighty-six ethnospecies, mostly of exotic origin (99%) are part of the agrobiodiversity of the fair. The main principles that foster the resilience of the fair are: high agrobiodiversity and functional redundancy that reflect and promote local food customs; learning and connectivity for innovation and information exchange; and cooperation and adaptive systemic thinking based on experiences, attachment to the land, and reciprocity. The affective dimension crosses each of these principles, strengthening the cultural fabric of horticulturists and customers. However, the economic and cultural viability of the fair is uncertain, mainly due to the drastic socio-environmental changes that the region is experiencing. Conclusions: To reduce the vulnerabilities of the fair, it will be necessary to strengthen the principles mentioned above and to increase the participation of the broader levels of governance (technical and governmental sectors). © 2023, Ilia State University, Institute of Botany, Department of Ethnobotany. All rights reserved.</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -692,7 +692,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Resilience processes and positioning of agroecological farmers in an urban horticultural fair in northwest Patagonia</t>
+          <t>Unraveling On-Farm Wheat Loss in Fars Province, Iran: A Qualitative Analysis and Exploration of Potential Solutions with Emphasis on Agricultural Cooperatives</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -700,7 +700,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Background: Horticultural fairs are spaces that promote regional agrobiodiversity, transmitting and recreating multiple knowledge and emotions between horticulturists and customers. The adaptive processes by which fairs are sustained over time in the face of socio-economic, climatic, and sanitary changes are still little known. Considering the principles of socio-environmental resilience, the aims of this research were: 1) to analyze the positionings of horticulturists that favor the process of resilience in the Free Fair of Family Farmers from Nahuel Huapi, San Carlos de Bariloche (Patagonia, Argentina) and 2) to reflect on the vulnerabilities and challenges faced by this fair for its sustainability over time. Methods: A qualitative study was carried out that included interviews, participant observation, and virtual ethnography. Results: One hundred and eighty-six ethnospecies, mostly of exotic origin (99%) are part of the agrobiodiversity of the fair. The main principles that foster the resilience of the fair are: high agrobiodiversity and functional redundancy that reflect and promote local food customs; learning and connectivity for innovation and information exchange; and cooperation and adaptive systemic thinking based on experiences, attachment to the land, and reciprocity. The affective dimension crosses each of these principles, strengthening the cultural fabric of horticulturists and customers. However, the economic and cultural viability of the fair is uncertain, mainly due to the drastic socio-environmental changes that the region is experiencing. Conclusions: To reduce the vulnerabilities of the fair, it will be necessary to strengthen the principles mentioned above and to increase the participation of the broader levels of governance (technical and governmental sectors). © 2023, Ilia State University, Institute of Botany, Department of Ethnobotany. All rights reserved.</t>
+          <t>Given wheat’s global significance as a primary food crop, and its importance in providing essential nutrition to millions of people worldwide, reducing on-farm losses is crucial to promoting food security, sustainable agriculture, and economic stability. Wheat plays a critical role in food security in Iran, as it is a staple food consumed daily by a large proportion of the population, and is also a vital component of the country’s food self-sufficiency policy. The present study aims to identify the causes and extent of on-farm wheat loss in Fars province, a major wheat-producing area in Iran. Nine experts were interviewed, using open-ended questions, in October 2018. The study revealed that a considerable amount of wheat is lost due to seed overuse, pest infestation, and improper harvesting. The paper discusses the underlying factors associated with these over-arching causes, and highlights their adverse environmental, economic, and societal impacts. The paper also explores potential approaches to take in addressing the issue, and suggests empowering agricultural cooperatives through changes in the government’s engagement with wheat production. This study provides valuable insights for policymakers and stakeholders which are useful for developing effective strategies to reduce on-farm loss, particularly in countries where intensified farming is promoted. These strategies may include limiting the government’s central control and, instead, empowering agricultural cooperatives, as well as adopting supportive approaches, such as improving farmers’ access to proper machinery, and enhancing their sovereignty and freedom. © 2023 by the authors.</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -728,7 +728,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Unraveling On-Farm Wheat Loss in Fars Province, Iran: A Qualitative Analysis and Exploration of Potential Solutions with Emphasis on Agricultural Cooperatives</t>
+          <t>Localization of the corporate food regime and the food sovereignty movement: taiwan’s food sovereignty movement under “third regionalism”</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -736,7 +736,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Given wheat’s global significance as a primary food crop, and its importance in providing essential nutrition to millions of people worldwide, reducing on-farm losses is crucial to promoting food security, sustainable agriculture, and economic stability. Wheat plays a critical role in food security in Iran, as it is a staple food consumed daily by a large proportion of the population, and is also a vital component of the country’s food self-sufficiency policy. The present study aims to identify the causes and extent of on-farm wheat loss in Fars province, a major wheat-producing area in Iran. Nine experts were interviewed, using open-ended questions, in October 2018. The study revealed that a considerable amount of wheat is lost due to seed overuse, pest infestation, and improper harvesting. The paper discusses the underlying factors associated with these over-arching causes, and highlights their adverse environmental, economic, and societal impacts. The paper also explores potential approaches to take in addressing the issue, and suggests empowering agricultural cooperatives through changes in the government’s engagement with wheat production. This study provides valuable insights for policymakers and stakeholders which are useful for developing effective strategies to reduce on-farm loss, particularly in countries where intensified farming is promoted. These strategies may include limiting the government’s central control and, instead, empowering agricultural cooperatives, as well as adopting supportive approaches, such as improving farmers’ access to proper machinery, and enhancing their sovereignty and freedom. © 2023 by the authors.</t>
+          <t>Third regionalism explains the liberalization of trade centered around the Asia-Pacific region in the 21st century. Under regionalism, domestic agricultural markets that formerly enjoyed national food-security policies have loosened. This caused traditional domestic farmers’ organizations to become more regionally interconnected, forming a food sovereignty movement under the auspices of La Via Campesina. Localized food-production chains are promoted to mitigate the impact of regionalism on the Asia-Pacific agricultural sector. The Taiwan Rural Front (TRF) joined La Via Campesina and the food sovereignty movement in the 2010s. During the process of adopting regionalism, Taiwanese agricultural trade and technologies were protected by public agencies and state-owned enterprises. This context differs from that of Southeast Asia, where the food sovereignty movement has thrived. Therefore, the following question is raised: Why was it possible for the food sovereignty movement to originate in Taiwan? This paper describes the developmental characteristics of Taiwan’s food-security governance mechanism as a state-guided corporate food regime amid third regionalism. Further, the TRF does not advocate for localized food-production chains. Due to the formation of a state-guided corporate food regime, the food sovereignty movement has become connected with farmland protection movements that set the Taiwanese sovereignty movement apart. © 2022 Association for the Study of Food and Society.</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -764,7 +764,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>CLIMATE CHANGE AND FOOD SECURITY: FROM THE ONE HEALTH APPROACH TO THE HOLISTIC MODELS OF THE GLOBAL SOUTH; [Cambiamento climatico e sicurezza alimentare: dall’approccio One Health ai modelli olistici del Global South]</t>
+          <t>The making of peasant subalternity in Portugal: histories of marginalisation and resistance to agrarian modernisation</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -772,7 +772,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>The article analyzes the impact of climate change on food security and the right to food, exploring different regulatory models deemed to address the challenges produced by climate change in food systems, within the framework of recommendations from international institutions. The essay identifies certain integrated regulatory approaches applicable to agrifood regulation on which a widespread consensus in the scientific community and among international institutions may be appreciated. Among these are the One Health approach, the ecosystem approach, the models inspired by agroecology, and the so-called human rights-based approach (HRB). The paper discusses their effectiveness in promoting food security and climate resilience, attempting to verify the presence of regulatory provisions inspired by such approaches in existing food legislation. In such respect, the article examines the recent European “From farm to fork” strategy and certain approaches in the context of the Global South. © 2023, BioLaw Journal. All Rights Reserved.</t>
+          <t>This paper examines how marginalised, small-scale family farmers have been facing the difficulties of agrarian modernisation in Portugal. Central to the history of contemporary peasants in this country is their continuous subordination to the power of agrarian capital and landed elites. But subaltern peasants have mobilised, particularly through CNA, a Vía Campesina member organisation, to build an oppositional project, not without tensions. The article argues that a Gramscian notion of subalternity offers a powerful lens to analyse the links between agrarian change, conflict and resistance for its focus on uneven power relations and by emphasising the centrality of social struggle. © 2021 Informa UK Limited, trading as Taylor &amp; Francis Group.</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -800,7 +800,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Localization of the corporate food regime and the food sovereignty movement: taiwan’s food sovereignty movement under “third regionalism”</t>
+          <t>Between eating enough and the desire to eat: the state of the art on sovereignty and food and nutritional security in Brazil; [Entre comer à vontade e a vontade de comer: o estado da arte sobre soberania e segurança alimentar e nutricional no Brasil]</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -808,7 +808,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Third regionalism explains the liberalization of trade centered around the Asia-Pacific region in the 21st century. Under regionalism, domestic agricultural markets that formerly enjoyed national food-security policies have loosened. This caused traditional domestic farmers’ organizations to become more regionally interconnected, forming a food sovereignty movement under the auspices of La Via Campesina. Localized food-production chains are promoted to mitigate the impact of regionalism on the Asia-Pacific agricultural sector. The Taiwan Rural Front (TRF) joined La Via Campesina and the food sovereignty movement in the 2010s. During the process of adopting regionalism, Taiwanese agricultural trade and technologies were protected by public agencies and state-owned enterprises. This context differs from that of Southeast Asia, where the food sovereignty movement has thrived. Therefore, the following question is raised: Why was it possible for the food sovereignty movement to originate in Taiwan? This paper describes the developmental characteristics of Taiwan’s food-security governance mechanism as a state-guided corporate food regime amid third regionalism. Further, the TRF does not advocate for localized food-production chains. Due to the formation of a state-guided corporate food regime, the food sovereignty movement has become connected with farmland protection movements that set the Taiwanese sovereignty movement apart. © 2022 Association for the Study of Food and Society.</t>
+          <t>The article aims to identify the main debates on Food and Nutritional Sovereignty and Security considering a broad approach and legal publications in order to comprehend the theme in a multidisciplinary way and to locate possible research gaps. It proceeds a bibliographical and systematical review (state of the art) that was carried out in the 5-year time frame (2016-2020), and restricted to journals available at SciElo and theses and dissertations from Master's and Doctoral programs at Capes. With qualitative data analysis approach and the deductive method, a critical analysis of the data was done. The results were divided into three categories: environment; human rights and political-economical. It concludes that the use of pesticides, the counter-hegemonic discourse and the analysis of public policies, especially those directed to family farmers, are approaches with the highest incidence. The scarcity of research on food systems and seeds stood out, mainly regarding the regulatory framework, and water security, closely associated with food production can be mentioned as research gaps. © 2023 Universidade Federal do Parana. All rights reserved.</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -836,15 +836,15 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>‘Our struggle is for humanity’: a conversation with Morgan Ody, general coordinator of La Via Campesina International, on land, politics, peasant life and a vision for hope in our changing world</t>
+          <t>The genetically modified organism shall not be refused? Talking back to the technosciences</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>A new generation of activists and peasant leaders have taken up the banner of food sovereignty amid an even more challenging and violent situation for rural people around the world. In this interview Morgan Ody, the new General Coordinator of La Via Campesina International, discusses her vision for rural movements. Originally from a small dairy farm, Ody is a second-generation militant in Confédéracion Paysanne. Ody speaks about land reform, climate politics, the perils and potential of state policies, rising populism, and the power of the peasantry: in short, about where the movement has been and where we are headed. © 2023 Informa UK Limited, trading as Taylor &amp; Francis Group.</t>
+          <t>Starting from Marcel Mauss’ observation that “one has no right to refuse a gift”, this paper explores the politics of refusal in the context of field trials with genetically modified organisms in Flanders (Belgium). Based on a decade of activist research, and focusing on the genetically modified organism field trials of the Flemish Institute for Biotechnology, we show that the business model of this strategic research center – with its triple mission of carrying biotechnology research, technology transfer, and the promotion of biotechnology through communication and lobby activities – fosters a climate in which innovations in the technosciences have to “be accepted”. The future is laid out without including the possibility of refusal. Consternation is great when this is exactly what happens. Irrational fears and lack of understanding or lack of familiarity are invoked to explain refusal. Language of precision, innovation, safety, and control are deployed to re-assure the public. Refusal is not considered a legitimate option. Yet, if farmers and grassroots initiatives would accept the gift of genetically modified organisms, it would mean the acceptance of their dispossession and the impossibility of diverse food sovereignties. Starting from theoretical work on “the gift” and “the politics of refusal”, we argue that recognizing innovation as the intrinsically plural and divergent process it is, entails including options to refuse particular pathways as a first step to open up others. As we will argue, saying no to genetically modified organisms is part of saying yes to peasant autonomy, agrobiodiversity, and peoples’ food sovereignties. © The Author(s) 2021.</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -872,15 +872,15 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>The making of peasant subalternity in Portugal: histories of marginalisation and resistance to agrarian modernisation</t>
+          <t>Autonomy and repeasantization: Conceptual, analytical, and methodological problems</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>This paper examines how marginalised, small-scale family farmers have been facing the difficulties of agrarian modernisation in Portugal. Central to the history of contemporary peasants in this country is their continuous subordination to the power of agrarian capital and landed elites. But subaltern peasants have mobilised, particularly through CNA, a Vía Campesina member organisation, to build an oppositional project, not without tensions. The article argues that a Gramscian notion of subalternity offers a powerful lens to analyse the links between agrarian change, conflict and resistance for its focus on uneven power relations and by emphasising the centrality of social struggle. © 2021 Informa UK Limited, trading as Taylor &amp; Francis Group.</t>
+          <t>“Autonomy,” as a desirable state, is a notion often used by food sovereignty-oriented farmer movements and scholars studying repeasantization. The term is predominantly used rather casually, relying on presumed meanings, but van der Ploeg's book The New Peasantries seeks to elaborate a particular meaning of autonomy as a characteristic feature of the peasantry. The desire of farmers/peasants for autonomy is formulated in tandem with agroecological agriculture, farmers' agency, locally “nested” markets, co-production with nature, non-commoditized production, and multiple kinds of peasant resistance. This article identifies the distinctive nature of this take on autonomy and analyses its analytical, normative, and political aspects. It develops several critiques regarding the analytical shortcomings of the notion of peasant autonomy: the methodological problem of a peasant bias; the analytical limitations and incompatibility of intrinsic and “relative” autonomy; and the neglect of accumulation from below and subtle class contradictions. Rather than centring autonomy or relative autonomy, the authors argue for shifting the focus to the nature of different types of dependency relationships, ranging from very exploitative to those vital for human flourishing. © 2021 The Authors. Journal of Agrarian Change published by John Wiley &amp; Sons Ltd.</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -908,15 +908,15 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Between eating enough and the desire to eat: the state of the art on sovereignty and food and nutritional security in Brazil; [Entre comer à vontade e a vontade de comer: o estado da arte sobre soberania e segurança alimentar e nutricional no Brasil]</t>
+          <t>Does ‘food sovereignty’ engender paradigm shift or co-optation? Insights from Nepal</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>The article aims to identify the main debates on Food and Nutritional Sovereignty and Security considering a broad approach and legal publications in order to comprehend the theme in a multidisciplinary way and to locate possible research gaps. It proceeds a bibliographical and systematical review (state of the art) that was carried out in the 5-year time frame (2016-2020), and restricted to journals available at SciElo and theses and dissertations from Master's and Doctoral programs at Capes. With qualitative data analysis approach and the deductive method, a critical analysis of the data was done. The results were divided into three categories: environment; human rights and political-economical. It concludes that the use of pesticides, the counter-hegemonic discourse and the analysis of public policies, especially those directed to family farmers, are approaches with the highest incidence. The scarcity of research on food systems and seeds stood out, mainly regarding the regulatory framework, and water security, closely associated with food production can be mentioned as research gaps. © 2023 Universidade Federal do Parana. All rights reserved.</t>
+          <t>Food sovereignty proponents find the terms ‘security’ and ‘right’ associated with ‘food’ as not covering the entire gamut of food and agricultural issues, especially in addressing small farmers’ and peasants’ concerns and ensuring sustainable agriculture development. Hence, they have conceptualized an alternative food paradigm and called it ‘food sovereignty’. However, food sovereignty has been interpreted and operationalized in various forms. Perhaps the choice of the term sovereignty has rendered the idea of food sovereignty ideal for co-optation because sovereignty is a historically and politically contested concept with multiple meanings attached to it. Some scholars argue that there are multiple sovereignties in food sovereignty that can be reconciled. This article analyses the case of Nepal that has adopted the idea of food sovereignty, and finds that the argument of multiple sovereignties exercised through relational and interactive measures can only be aspirational and normative at best. © 2022 Informa UK Limited, trading as Taylor &amp; Francis Group.</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -944,15 +944,15 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Parity as radical pragmatism: Centering farm justice and agrarian expertise in agricultural policy</t>
+          <t>AFHVS 2021 Presidential Address: critical praxis and the social imaginary for food systems transformation</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Rather than treating symptoms of a destructive agri-food system, agricultural policy, research, and advocacy need both to address the root causes of dysfunction and to learn from longstanding interventions to counter it. Specifically, this paper focuses on agricultural parity policies – farmer-led, government-enacted programs to secure a price floor and manage supply to prevent the economic and ecological devastation of unfettered corporate agro-capitalism. Though these programs remain off the radar in dominant policy, scholarship, and civil society activism, but in the past few years, vast swaths of humanity have mobilized in India to call for agri-food systems transformation through farmgate pricing and market protections. This paper asks what constitutes true farm justice and how it could be updated and expanded as an avenue for radically reimagining agriculture and thus food systems at large. Parity refers to both a pricing ratio to ensure livelihood, but also a broader farm justice movement built on principles of fair farmgate prices and cooperatively coordinated supply management. The programs and principles are now mostly considered “radical,” deemed inefficient, irrelevant, obsolete, and grievous government overeach—but from the vantage, we argue, of a system that profits from commodity crop overproduction and agroindustry consolidation. However, by examining parity through a producer-centric lens cognizant of farmers‘ ability, desire, and need to care for the land, ideas of price protection and supply coordination become foundational, so that farmers can make a dignified livelihood stewarding land and water while producing nourishing food. This paradox—that an agricultural governance principle can seem both radical and common sense, far-fetched and pragmatic—deserves attention and analysis. As overall numbers of farmers decline in Global North contexts, their voices dwindle from these conversations, leaving space for worldviews favoring de-agrarianization altogether. In Global South contexts maintaining robust farming populations, such policies for deliberate de-agrarianization bely an aggression toward rural and peasant ways of life and land tenure. Alongside the history of parity programs, principles, and movements in U.S., the paper will examine a vast version of a parity program in India – the Minimum Support Price (MSP) system, which Indian farmers defended and now struggle to expand into a legal right. From East India to the plains of the United States and beyond, parity principles and programs have the potential to offer a pragmatic direction for countering global agro-industrial corporate capture, along with its de-agrarianization, and environmental destruction. The paper explores what and why of parity programs and movements, even as it addresses the complexity of how international parity agreements would unfold. It ends with the need for global supply coordination grounded in food sovereignty and solidarity, and thus the methodological urgency of centering farm justice and agrarian expertise. Copyright © 2023 Graddy-Lovelace, Krikorian, Jewett, Vivekanandan, Stahl, Singh, Wilson, Naylor, Naylor and Pennick.</t>
+          <t>In this 2021 AFHVS Presidential Address, Kim Niewolny provides a brief foray into the onto-epistemic framing of critical praxis for sustainable food systems transformation. Niewolny proposes we engage in the creative entanglement of critical praxis and the social imaginary to “unthink” the orthodoxies that govern our ideas of the possible. She offers several possibilities as pathways toward a food system that embodies health equity, ecological justice, land sovereignty, and human rights, including: (1) agroecological research and movement building; (2) food, farm, and health policy; (3) food and farm system worker protections as public health and human rights concerns; (4) intersectional food justice scholarship and curriculum; (5) narrative-led, community-based, and action-oriented methodologies as multi-dimensional inquiry; (6) and multi-sector and multi-racial coalitions as dynamic networks that challenge linear, neoliberal, and technical-rational practices. Niewolny concludes with a call for radical hope as a principle for critical food systems praxis. © 2021, The Author(s), under exclusive licence to Springer Nature B.V.</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -980,7 +980,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>The genetically modified organism shall not be refused? Talking back to the technosciences</t>
+          <t>Farm-level pathways to food security: beyond missing markets and irrational peasants</t>
         </is>
       </c>
       <c r="C16" t="n">
@@ -988,7 +988,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Starting from Marcel Mauss’ observation that “one has no right to refuse a gift”, this paper explores the politics of refusal in the context of field trials with genetically modified organisms in Flanders (Belgium). Based on a decade of activist research, and focusing on the genetically modified organism field trials of the Flemish Institute for Biotechnology, we show that the business model of this strategic research center – with its triple mission of carrying biotechnology research, technology transfer, and the promotion of biotechnology through communication and lobby activities – fosters a climate in which innovations in the technosciences have to “be accepted”. The future is laid out without including the possibility of refusal. Consternation is great when this is exactly what happens. Irrational fears and lack of understanding or lack of familiarity are invoked to explain refusal. Language of precision, innovation, safety, and control are deployed to re-assure the public. Refusal is not considered a legitimate option. Yet, if farmers and grassroots initiatives would accept the gift of genetically modified organisms, it would mean the acceptance of their dispossession and the impossibility of diverse food sovereignties. Starting from theoretical work on “the gift” and “the politics of refusal”, we argue that recognizing innovation as the intrinsically plural and divergent process it is, entails including options to refuse particular pathways as a first step to open up others. As we will argue, saying no to genetically modified organisms is part of saying yes to peasant autonomy, agrobiodiversity, and peoples’ food sovereignties. © The Author(s) 2021.</t>
+          <t>Development projects in Sub-Saharan Africa propose to alleviate hunger in rural areas by introducing new agricultural practices and technologies, yet there is limited empirical evidence of how an agricultural intervention can lead farming households to transition to food security. Research on food security pathways considers agricultural interventions that increase farmers’ income to be particularly effective for reducing food insecurity. Consistent with this stance, Malawian agricultural policy aims to address hunger by encouraging smallholder farmers to intensify and commercialize maize production. This paper explores if smallholders’ market and livelihood orientations do indeed lead them to favor an income pathway to food security. Qualitative analysis of 60 smallholder farmer interviews in Malawi found that, upon achieving improvements in production yields and diversity, rather than commercialize, many farmers re-organized their production and consumption to reduce market dependency. Farmers deployed this strategy to increase their food security, explaining that the choice to self-provision food and farming inputs was both an expression of farming identity and a lived understanding of their marginal position in commodity markets. The author finds that, in failing to consider how production relations affect food access, scholarship inadequately theorizes farm-level food security transitions and reproduces discursive framings of hunger. Food sovereignty narratives more accurately captured what mattered for Malawian smallholders’ food security, suggesting that engagement with this concept could improve scientific understandings of food security transitions. © 2021, The Author(s), under exclusive licence to Springer Nature B.V.</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -1016,15 +1016,15 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Autonomy and repeasantization: Conceptual, analytical, and methodological problems</t>
+          <t>Food sovereignty and the integral state: Institutionalizing ecological farming</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>“Autonomy,” as a desirable state, is a notion often used by food sovereignty-oriented farmer movements and scholars studying repeasantization. The term is predominantly used rather casually, relying on presumed meanings, but van der Ploeg's book The New Peasantries seeks to elaborate a particular meaning of autonomy as a characteristic feature of the peasantry. The desire of farmers/peasants for autonomy is formulated in tandem with agroecological agriculture, farmers' agency, locally “nested” markets, co-production with nature, non-commoditized production, and multiple kinds of peasant resistance. This article identifies the distinctive nature of this take on autonomy and analyses its analytical, normative, and political aspects. It develops several critiques regarding the analytical shortcomings of the notion of peasant autonomy: the methodological problem of a peasant bias; the analytical limitations and incompatibility of intrinsic and “relative” autonomy; and the neglect of accumulation from below and subtle class contradictions. Rather than centring autonomy or relative autonomy, the authors argue for shifting the focus to the nature of different types of dependency relationships, ranging from very exploitative to those vital for human flourishing. © 2021 The Authors. Journal of Agrarian Change published by John Wiley &amp; Sons Ltd.</t>
+          <t>This article takes up the question of how food sovereignty, and accompanying agricultural models that will help combat climate change, may be institutionalized through policy processes. I draw on the theories of Antonio Gramsci and his successors to discuss how the interwoven nature of the state and civil society, conceptualized as the ‘integral state’, can help inform an analytical approach to food policy change. Based on research that analyzes the work of Canada's two member organizations of La Vía Campesina, Union Paysanne and the National Farmers Union (NFU), I highlight the differences and parallels between food sovereignty struggles taking place in Quebec and those underway elsewhere in the country. I argue that although agricultural policy has the potential to be an important tool in transitioning toward a climate-friendly food system, proponents of food sovereignty would benefit from disengaging from traditional food policy advocacy efforts as these will only lead to incremental reforms. Instead, I suggest that a ‘prefigurative institutionalization’ has the potential to be transformative within and beyond the food system. The concept offers both a political strategy as well as an analytical framework for assessing movements’ efforts related to policy formation and governance. © 2021 Elsevier Ltd</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -1052,7 +1052,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Policies and practices of central and sub-national governments for seed commons formation in Japan: will the seeds of the varieties collected and developed be shared?</t>
+          <t>Peasants' Rights as New Human Rights: Promises and Concerns for Agrobiodiversity Conservation</t>
         </is>
       </c>
       <c r="C18" t="n">
@@ -1060,7 +1060,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Proponents of agroecology and food sovereignty are trying to form seed commons as a framework against the formal seed systems established by governments. However, we argue that the formation of seed commons should not be considered as a dichotomy that distinguishes between the government and stakeholders, including farmers, but rather as a dichotomy that divides the scope of activities into those regulated by law and those that can be determined by farmers at their own discretion. Japan, like many other countries, is a signatory to the International Treaty on Plant Genetic Resources for Food and Agriculture and the International Union for the Protection of New Varieties of Plants, both of which contain important elements for the conservation of agricultural biodiversity and agroecology at the national and local level. Based on the proposed dichotomy, this study aims to explore the possibility of creating seed commons for seed sharing in Japan. We clarify the policies and actual conditions surrounding the access and use of seeds and explore the possibility of creating seed commons. © 2021 The Author(s). Published by Informa UK Limited, trading as Taylor &amp; Francis Group.</t>
+          <t>Agrobiodiversity conservation is vital for food security, maintaining ecological balance, and preserving socio-cultural norms. There is substantial evidence to support that agrobiodiversity hotspots coincide with localized, small-scale peasant food systems. Preserving such food systems is necessary for protecting agrobiodiversity. The current legal framework over agrobiodiversity is fragmented and inadequate. A major portion of this framework is situated within intellectual property law and farmers' rights law, neither of which are designed to foster sustainable management of agrobiodiversity. In this context, the 2018 Peasants' Rights Declaration has the potential to fill the gaps in the existing framework. The paper critically analyses the Declaration by exploring some of its legal innovations in improving agrobiodiversity conservation. While some of these innovations are commendable, they are unlikely to be adopted by states owing to their radical nature. Their adoption would require a massive overhaul of the existing agricultural model and power structures embedded within it.  Copyright © 2022 The Author(s).</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -1088,15 +1088,15 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Does ‘food sovereignty’ engender paradigm shift or co-optation? Insights from Nepal</t>
+          <t>THE PROSPECTS OF FOOD SOVEREIGNTY IN THE FORMER YUGOSLAV REPUBLICS</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Food sovereignty proponents find the terms ‘security’ and ‘right’ associated with ‘food’ as not covering the entire gamut of food and agricultural issues, especially in addressing small farmers’ and peasants’ concerns and ensuring sustainable agriculture development. Hence, they have conceptualized an alternative food paradigm and called it ‘food sovereignty’. However, food sovereignty has been interpreted and operationalized in various forms. Perhaps the choice of the term sovereignty has rendered the idea of food sovereignty ideal for co-optation because sovereignty is a historically and politically contested concept with multiple meanings attached to it. Some scholars argue that there are multiple sovereignties in food sovereignty that can be reconciled. This article analyses the case of Nepal that has adopted the idea of food sovereignty, and finds that the argument of multiple sovereignties exercised through relational and interactive measures can only be aspirational and normative at best. © 2022 Informa UK Limited, trading as Taylor &amp; Francis Group.</t>
+          <t>The neoliberal approach taken to the transition from socialism to capitalism in the six former Yugoslav republics has revealed its weaknesses in all spheres of economic activities, including food produc-tion. These countries have lost sovereignty with respect to regulating important national policy areas like food trade and production. Liberalisation of the food trade has adversely affected national economies by destroy-ing many small-scale farmers and food producers. Corporate supermarkets have been taking over an ever bigger slice of the retail pie. Social movements are call-ing for direct democratic control over resources and food production to be regained. The article examines the prospects of these countries to overcome the increas-ing food insecurity by introducing food sovereignty. © 2021, Ljubljana University, Faculty of Social Sciences. All rights reserved.</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -1124,15 +1124,15 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Let’s Reclaim Our Food Sovereignty and Reject the Industrial Food System!</t>
+          <t>Food sovereignty and property in Cuba and the United States</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>African food systems are a rich and varied tapestry of production systems, crops, seed, territorial markets, cultures, biodiversity and ecologies. As the UN Food Systems Summit worked to retrench the many pathologies that have systematically eroded African food systems, African civil society organizations mobilized to push back. In the African regional people’s countermobilization, participatory dialogues opened space for continent-wide articulations of a future built on peoples’ choices and control of natural resources, territorially-embedded solutions, the human rights of all, family farming, and peasant agroecology. © 2021, Society for International Development.</t>
+          <t>Food sovereignty promotes agroecological farming methods and the reduction of food insecurity through changing political relations between people, land and food policy. Market orientations to land and private property in liberal democracies restrict access to food, and thus for food sovereigntists, reframing the social relationship to land through property is key to making food more available. This paper examines the case of usufruct land rights in Cuba as a framework for reworking land rights. We identify key limitations that impair producer autonomy, suggesting how different orientations toward property present unique problems and potential solutions towards the goal of food sovereignty. © 2021 Informa UK Limited, trading as Taylor &amp; Francis Group.</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -1160,15 +1160,15 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>AFHVS 2021 Presidential Address: critical praxis and the social imaginary for food systems transformation</t>
+          <t>Food sovereignty and farmland protection in the Municipal County of Antigonish, Nova Scotia</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>In this 2021 AFHVS Presidential Address, Kim Niewolny provides a brief foray into the onto-epistemic framing of critical praxis for sustainable food systems transformation. Niewolny proposes we engage in the creative entanglement of critical praxis and the social imaginary to “unthink” the orthodoxies that govern our ideas of the possible. She offers several possibilities as pathways toward a food system that embodies health equity, ecological justice, land sovereignty, and human rights, including: (1) agroecological research and movement building; (2) food, farm, and health policy; (3) food and farm system worker protections as public health and human rights concerns; (4) intersectional food justice scholarship and curriculum; (5) narrative-led, community-based, and action-oriented methodologies as multi-dimensional inquiry; (6) and multi-sector and multi-racial coalitions as dynamic networks that challenge linear, neoliberal, and technical-rational practices. Niewolny concludes with a call for radical hope as a principle for critical food systems praxis. © 2021, The Author(s), under exclusive licence to Springer Nature B.V.</t>
+          <t>This case study of the Municipal County of Antigonish (MCA) in the Canadian province of Nova Scotia assessed the extent to which agricultural land use planning accommodates those societal interests seeking to embed food sovereignty at the municipal level. Data were collected through content analysis of legislative documents, key informant interviews, and a review of the grey literature. Results suggest that the relatively weak municipal planning system in place prioritizes private interests over the public interest in farmland protection. The resultant gaps in the legislative setup in the MCA further reveal that food sovereignty actors and/or ideas have little influence over municipal governance of farmland protection. Broader historical and contemporary trends in Nova Scotia and Canada at large suggest that farmland will continue to lose ground to forces intrinsic to the dominant policy paradigm of market liberalism. Concluding thoughts call for “bringing back the (Canadian) state” itself as central to constituting a new agricultural policy paradigm. © 2021 by the Authors.</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -1196,15 +1196,15 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Farm-level pathways to food security: beyond missing markets and irrational peasants</t>
+          <t>Achieving Food System Resilience Requires Challenging Dominant Land Property Regimes</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Development projects in Sub-Saharan Africa propose to alleviate hunger in rural areas by introducing new agricultural practices and technologies, yet there is limited empirical evidence of how an agricultural intervention can lead farming households to transition to food security. Research on food security pathways considers agricultural interventions that increase farmers’ income to be particularly effective for reducing food insecurity. Consistent with this stance, Malawian agricultural policy aims to address hunger by encouraging smallholder farmers to intensify and commercialize maize production. This paper explores if smallholders’ market and livelihood orientations do indeed lead them to favor an income pathway to food security. Qualitative analysis of 60 smallholder farmer interviews in Malawi found that, upon achieving improvements in production yields and diversity, rather than commercialize, many farmers re-organized their production and consumption to reduce market dependency. Farmers deployed this strategy to increase their food security, explaining that the choice to self-provision food and farming inputs was both an expression of farming identity and a lived understanding of their marginal position in commodity markets. The author finds that, in failing to consider how production relations affect food access, scholarship inadequately theorizes farm-level food security transitions and reproduces discursive framings of hunger. Food sovereignty narratives more accurately captured what mattered for Malawian smallholders’ food security, suggesting that engagement with this concept could improve scientific understandings of food security transitions. © 2021, The Author(s), under exclusive licence to Springer Nature B.V.</t>
+          <t>Although evidence continues to indicate an urgent need to transition food systems away from industrialized monocultures and toward agroecological production, there is little sign of significant policy commitment toward food system transformation in global North geographies. The authors, a consortium of researchers studying the land-food nexus in global North geographies, argue that a key lock-in explaining the lack of reform arises from how most food system interventions work through dominant logics of property to achieve their goals of agroecological production. Doing so fails to recognize how land tenure systems, codified by law and performed by society, construct agricultural land use outcomes. In this perspective, the authors argue that achieving food system “resilience” requires urgent attention to the underlying property norms that drive land access regimes, especially where norms of property appear hegemonic. This paper first reviews research from political ecology, critical property law, and human geography to show how entrenched property relations in the global North frustrate the advancement of alternative models like food sovereignty and agroecology, and work to mediate acceptable forms of “sustainable agriculture.” Drawing on emerging cases of land tenure reform from the authors' collective experience working in Scotland, France, Australia, Canada, and Japan, we next observe how contesting dominant logics of property creates space to forge deep and equitable food system transformation. Equally, these cases demonstrate how powerful actors in the food system attempt to leverage legal and cultural norms of property to legitimize their control over the resources that drive agricultural production. Our formulation suggests that visions for food system “resilience” must embrace the reform of property relations as much as it does diversified farming practices. This work calls for a joint cultural and legal reimagination of our relation to land in places where property functions as an epistemic and apex entitlement. © Copyright © 2021 Calo, McKee, Perrin, Gasselin, McGreevy, Sippel, Desmarais, Shields, Baysse-Lainé, Magnan, Beingessner and Kobayashi.</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -1232,7 +1232,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Food sovereignty and the integral state: Institutionalizing ecological farming</t>
+          <t>Impact evaluation based on benefit indicators (IEBBI): methodological proposal for agroecological farmers’ markets; [Evaluación del impacto basada en indicadores de beneficios (IEBBI): propuesta metodológica para mercados de productores agroecológicos]</t>
         </is>
       </c>
       <c r="C23" t="n">
@@ -1240,7 +1240,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>This article takes up the question of how food sovereignty, and accompanying agricultural models that will help combat climate change, may be institutionalized through policy processes. I draw on the theories of Antonio Gramsci and his successors to discuss how the interwoven nature of the state and civil society, conceptualized as the ‘integral state’, can help inform an analytical approach to food policy change. Based on research that analyzes the work of Canada's two member organizations of La Vía Campesina, Union Paysanne and the National Farmers Union (NFU), I highlight the differences and parallels between food sovereignty struggles taking place in Quebec and those underway elsewhere in the country. I argue that although agricultural policy has the potential to be an important tool in transitioning toward a climate-friendly food system, proponents of food sovereignty would benefit from disengaging from traditional food policy advocacy efforts as these will only lead to incremental reforms. Instead, I suggest that a ‘prefigurative institutionalization’ has the potential to be transformative within and beyond the food system. The concept offers both a political strategy as well as an analytical framework for assessing movements’ efforts related to policy formation and governance. © 2021 Elsevier Ltd</t>
+          <t>Farmers’ markets represent a growing strategy for the generation of food sovereignty and sustainability; however, little is known about their impacts in economic, social and environmental terms. The objective of this research was to develop a framework that would allow determining that impact. The resulting methodological framework includes 20 indicators divided into seven groups: proximity, profitability, perceived benefits, areas of opportunity, economic impact, social impact, and environmental impact. This methodology was applied in one agroecological farmers’ market in Mexico City. Among the results, the main benefits are linked to socioeconomic interaction, while environmental impact indicators are the least considered. This methodology can guide the design, implementation, comparison, and monitoring of this type of initiative in the medium and long term. © 2021 Universidade de Brasilia. All rights reserved.</t>
         </is>
       </c>
       <c r="E23" t="n">
@@ -1268,15 +1268,15 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Peasants' Rights as New Human Rights: Promises and Concerns for Agrobiodiversity Conservation</t>
+          <t>The methodological strategies of agroecological research and the values with which they are linked</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Agrobiodiversity conservation is vital for food security, maintaining ecological balance, and preserving socio-cultural norms. There is substantial evidence to support that agrobiodiversity hotspots coincide with localized, small-scale peasant food systems. Preserving such food systems is necessary for protecting agrobiodiversity. The current legal framework over agrobiodiversity is fragmented and inadequate. A major portion of this framework is situated within intellectual property law and farmers' rights law, neither of which are designed to foster sustainable management of agrobiodiversity. In this context, the 2018 Peasants' Rights Declaration has the potential to fill the gaps in the existing framework. The paper critically analyses the Declaration by exploring some of its legal innovations in improving agrobiodiversity conservation. While some of these innovations are commendable, they are unlikely to be adopted by states owing to their radical nature. Their adoption would require a massive overhaul of the existing agricultural model and power structures embedded within it.  Copyright © 2022 The Author(s).</t>
+          <t>The characteristic features of some of the methodological strategies adopted in scientific research in agroecology are discussed. They reflect that agroecology, as an approach to scientific research, is inextricably entangled with the other strands of agroecology (farming practice, social movement, political project); and that adopting agroecological strategies, and upholding the values of environmental sustainability, food sovereignty, social justice and democratic participation, mutually reinforce each other. After outlining the kinds of questions that agroecological research addresses so that it can produce knowledge that informs agroecological farming practices and the long term aspiration of agroecological movements to create an alternative agricultural/food system, and then making summary remarks about methodological strategies in general, three characteristic features of some agroecological strategies are introduced and discussed. The paper concludes with comments on the value of agroecological research. © 2021 Elsevier Ltd</t>
         </is>
       </c>
       <c r="E24" t="n">
@@ -1304,15 +1304,15 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>THE PROSPECTS OF FOOD SOVEREIGNTY IN THE FORMER YUGOSLAV REPUBLICS</t>
+          <t>Beyond sustainability in food systems: Perspectives from agroecology and social innovation</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>The neoliberal approach taken to the transition from socialism to capitalism in the six former Yugoslav republics has revealed its weaknesses in all spheres of economic activities, including food produc-tion. These countries have lost sovereignty with respect to regulating important national policy areas like food trade and production. Liberalisation of the food trade has adversely affected national economies by destroy-ing many small-scale farmers and food producers. Corporate supermarkets have been taking over an ever bigger slice of the retail pie. Social movements are call-ing for direct democratic control over resources and food production to be regained. The article examines the prospects of these countries to overcome the increas-ing food insecurity by introducing food sovereignty. © 2021, Ljubljana University, Faculty of Social Sciences. All rights reserved.</t>
+          <t>Food security faces many multifaceted challenges, with effects ranging far beyond the sectors of agriculture and food science and involving all the multiscale components of sustainability. This paper puts forward our point of view about more sustainable and responsible approaches to food production research underlying the importance of knowledge and social innovation in agroecological practices. Increased demand for food worldwide and the diversification of food choices would suggest the adoption of highly productive, but low-resilient and unsustainable food production models. However, new perspectives are possible. These include the revitalization and valorization of family-based traditional agriculture and the promotion of diversified farming systems as a social and economic basis to foster social-ecological conversion. Additionally, they encompass the forecasting of the Participatory Guarantee Systems (PGS) and the drafting of a new agenda for food sovereignty. Thanks to a desk analysis, the study describes and discusses these perspectives, their trajectories and action research implications. The results suggest the need to adopt a more inclusive and systemic approach to the described problems, as the solutions require the promotion of responsibility within decision makers, professionals and consumers. This appears essential for reading, analyzing and understanding the complex ecological-functional, social and economic relations that characterize farming systems, as well as mobilizing local communities. © 2020 by the authors.</t>
         </is>
       </c>
       <c r="E25" t="n">
@@ -1340,15 +1340,15 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Food sovereignty and property in Cuba and the United States</t>
+          <t>Opportunities and barriers in diversified farming and the use of agroecological principles in the Global North–The experiences of Danish biodynamic farmers</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Food sovereignty promotes agroecological farming methods and the reduction of food insecurity through changing political relations between people, land and food policy. Market orientations to land and private property in liberal democracies restrict access to food, and thus for food sovereigntists, reframing the social relationship to land through property is key to making food more available. This paper examines the case of usufruct land rights in Cuba as a framework for reworking land rights. We identify key limitations that impair producer autonomy, suggesting how different orientations toward property present unique problems and potential solutions towards the goal of food sovereignty. © 2021 Informa UK Limited, trading as Taylor &amp; Francis Group.</t>
+          <t>Diversification through agroecological principles may maintain and stabilize yields in an increasingly more unpredictable climate, including market price fluctuations, as well as preserve and enhance the threatened natural resource base and the environment. Based on a participatory interview process this article identifies the barriers encountered by a group of Danish biodynamic farmers striving for self-sufficient farm systems with no or very little dependency on imported materials by developing biologically, economically and socially diverse farms. Through an iterative interview process the study found that barriers outside farm management are hindering the transition toward diverse farming and that a further exploration of the need for and implications of food sovereignty in the Global North might generate the discussions needed to support implementation of more agroecological farming system practises. © 2020 The Author(s). Published with license by Taylor &amp; Francis Group, LLC.</t>
         </is>
       </c>
       <c r="E26" t="n">
@@ -1376,15 +1376,15 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Subversive Future Seeks Like-Minded Model: On the Mismatch between Visions of Food Sovereignty Futures and Quantified Scenarios of Global Food Futures</t>
+          <t>Transition to agroecology for improved food security and better living conditions: case study from a family farm in Pinar del Río, Cuba</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Will we, by 2050, be able to feed a rapidly growing population with healthy and sustainably grown food in a world threatened by systemic environmental crises? There are too many uncertainties for us to predict the long-Term evolution of the global agri-food system, but we can explore a wide range of futures to inform policymaking and public debate on the future of food. This is typically done by creating scenarios (story lines that vividly describe what different futures could look like) and quantifying them with computer simulation models to get numerical estimates of how different aspects of the global agri-food system might evolve under different hypotheses. Among the many scenarios produced over the last twenty years, one would expect to see the future advocated by the food sovereignty movement, which claims to represent roughly two hundred million self-described peasants (small farmers) worldwide. This movement defends a vision of the future based on relocalized, sustainable, and just agri-food systems, self-governed through direct and participatory democratic processes. Yet, food sovereignty is conspicuously absent from quantified scenarios of global food futures. As part of the roundtable, Ethics and the Future of the Global Food System, this essay identifies seven obstacles that undermine the creation of food sovereignty scenarios by examining two attempts at crafting such scenarios.  Copyright © The Author(s), 2021. Published by Cambridge University Press on behalf of the Carnegie Council for Ethics in International Affairs.</t>
+          <t>The process of transition to agroecology of family farms is a topic of great importance in Cuba and the need to support family farming is gaining worldwide attention, while agroecology has been recognized as the most promising approach for the sustainable development of smallholder farmers. This work analyzes the process of agroecological conversion implemented by a family farm in western Cuba, highlighting the causes that enabled the process of transition and examining its effects on the family’s food security and livelihoods. The study shows how all the four aspects of food security–availability, access, stability, and utilization–have improved after the transition to agroecology, while positive impacts are also registered in soil quality, environmental sustainability, and resilience. From the point of view of economic sustainability, the transition has had high costs at the beginning but, after three years, agroecological production is resulting in increased income and better living conditions. The work also suggests actions to be implemented in order to advance in the process of transition to agroecology and hence achieve full food sovereignty. © 2020 Taylor &amp; Francis.</t>
         </is>
       </c>
       <c r="E27" t="n">
@@ -1412,7 +1412,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Food sovereignty and farmland protection in the Municipal County of Antigonish, Nova Scotia</t>
+          <t>Agroholdings, Technology, And The PoliTicAl economy of russiAn AgriculTure</t>
         </is>
       </c>
       <c r="C28" t="n">
@@ -1420,7 +1420,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>This case study of the Municipal County of Antigonish (MCA) in the Canadian province of Nova Scotia assessed the extent to which agricultural land use planning accommodates those societal interests seeking to embed food sovereignty at the municipal level. Data were collected through content analysis of legislative documents, key informant interviews, and a review of the grey literature. Results suggest that the relatively weak municipal planning system in place prioritizes private interests over the public interest in farmland protection. The resultant gaps in the legislative setup in the MCA further reveal that food sovereignty actors and/or ideas have little influence over municipal governance of farmland protection. Broader historical and contemporary trends in Nova Scotia and Canada at large suggest that farmland will continue to lose ground to forces intrinsic to the dominant policy paradigm of market liberalism. Concluding thoughts call for “bringing back the (Canadian) state” itself as central to constituting a new agricultural policy paradigm. © 2021 by the Authors.</t>
+          <t>Research for this article was conducted with the support of the Swiss National Science Foundation, the Swedish Collegium for Advanced Studies, and the University of Notre Dame. This article details the rise of Russian agricultural corporations, known as the agroholdings. These companies have accumulated control of Russia’s most fertile land over the last 20 years and have become the main producers of agricultural commodities and processed food. They are also the driving force of a profound technological transformation of agriculture and food production during this time. A core claim of this article is that the technopolitics of twenty-first-century Russian agriculture made the meteoric rise of agroholdings possible. Technology was central to both the economic and political roles of these large, vertically integrated agricultural conglomerates. Agroholdings grew rapidly because they adopted cutting-edge agricultural technologies that maximized yields and economic efficiency. Agroholdings’ control of technologies earned them, in turn, the political support they needed to thrive in the state capitalist system of the Putin era. They were privileged allies of President Vladimir Putin’s government, which sought to enlist them for the political goals of strengthening domestic farming and food production and reducing Russia’s dependence on food imports. More broadly, the article suggests that a technopolitical lens recasts and improves our understanding of the political economy of post-Soviet Russia. Technopolitics reveals the role of both the state and corporate actors, of power and capital, in the construction of a new economic order and draws attention to how these processes shape post-Soviet byt. © Laboratorium: Russian Review of Social Research</t>
         </is>
       </c>
       <c r="E28" t="n">
@@ -1448,7 +1448,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Achieving Food System Resilience Requires Challenging Dominant Land Property Regimes</t>
+          <t>Land grabs, farmworkers, and rural livelihoods in West Africa: some silences in the food sovereignty discourse</t>
         </is>
       </c>
       <c r="C29" t="n">
@@ -1456,7 +1456,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Although evidence continues to indicate an urgent need to transition food systems away from industrialized monocultures and toward agroecological production, there is little sign of significant policy commitment toward food system transformation in global North geographies. The authors, a consortium of researchers studying the land-food nexus in global North geographies, argue that a key lock-in explaining the lack of reform arises from how most food system interventions work through dominant logics of property to achieve their goals of agroecological production. Doing so fails to recognize how land tenure systems, codified by law and performed by society, construct agricultural land use outcomes. In this perspective, the authors argue that achieving food system “resilience” requires urgent attention to the underlying property norms that drive land access regimes, especially where norms of property appear hegemonic. This paper first reviews research from political ecology, critical property law, and human geography to show how entrenched property relations in the global North frustrate the advancement of alternative models like food sovereignty and agroecology, and work to mediate acceptable forms of “sustainable agriculture.” Drawing on emerging cases of land tenure reform from the authors' collective experience working in Scotland, France, Australia, Canada, and Japan, we next observe how contesting dominant logics of property creates space to forge deep and equitable food system transformation. Equally, these cases demonstrate how powerful actors in the food system attempt to leverage legal and cultural norms of property to legitimize their control over the resources that drive agricultural production. Our formulation suggests that visions for food system “resilience” must embrace the reform of property relations as much as it does diversified farming practices. This work calls for a joint cultural and legal reimagination of our relation to land in places where property functions as an epistemic and apex entitlement. © Copyright © 2021 Calo, McKee, Perrin, Gasselin, McGreevy, Sippel, Desmarais, Shields, Baysse-Lainé, Magnan, Beingessner and Kobayashi.</t>
+          <t>The global land rush has spurred small, modest, and big anti-land grab mobilizations, notably the food sovereignty movement. The movement has been instrumental in representing the interests of small-scale family farmers whose livelihoods are threatened by capitalist control over land in the countryside. However, this dominant narrative tends to overlook or de-emphasize some important diversity within the peasantry. In West Africa, anti-land grab discourses emphasize family farming as a major collective action frame, focusing less on issues related to agricultural wage labour–farmworkers’ access to land, food, and decent working conditions. If food sovereignty is to fully realize its potential power as a counter-narrative to neoliberalism, and as a possible democratic alternative for working people with differentiated and at times competing socio-economic interests, then demands that adequately reflect the agrarian struggles of the rural working people have to be put onto the agenda and engaged better than it is now. © 2020 The Author(s). Published by Informa UK Limited, trading as Taylor &amp; Francis Group.</t>
         </is>
       </c>
       <c r="E29" t="n">
@@ -1484,15 +1484,15 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Impact evaluation based on benefit indicators (IEBBI): methodological proposal for agroecological farmers’ markets; [Evaluación del impacto basada en indicadores de beneficios (IEBBI): propuesta metodológica para mercados de productores agroecológicos]</t>
+          <t>Agro-ecological transition of agricultural production systems at imbabura province of Ecuador; [Transição agroecológica de sistemas de produção agrícola na província de imbabura Equador]; [Transición agroecológica de los sistemas de producción agrícola de la provincia de imbabura Ecuador]</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Farmers’ markets represent a growing strategy for the generation of food sovereignty and sustainability; however, little is known about their impacts in economic, social and environmental terms. The objective of this research was to develop a framework that would allow determining that impact. The resulting methodological framework includes 20 indicators divided into seven groups: proximity, profitability, perceived benefits, areas of opportunity, economic impact, social impact, and environmental impact. This methodology was applied in one agroecological farmers’ market in Mexico City. Among the results, the main benefits are linked to socioeconomic interaction, while environmental impact indicators are the least considered. This methodology can guide the design, implementation, comparison, and monitoring of this type of initiative in the medium and long term. © 2021 Universidade de Brasilia. All rights reserved.</t>
+          <t>Transitional processes from conventional agricultural systems to agro ecological production systems has been promoted at Imbabura province in Ecuador, but development difficulties have been observed, due to farmer’s decisions for embracing transition, depends not only on the technology and local resources available, but also on several aspects of the surrounding social, economic and institutional system. A research was conducted, in order to characterize the transitional agro ecological degree of production systems at Imbabura province, regarding the social cooperation activity, the natural resources management and the public policies dynamics, A stratified random sample of 50 producers was taken, to whom a questionnaire was applied. Data was analyzed by descriptive statistics. Cramer test was used to determine the relationships of each item to municipalities. Results showed that, in social dynamics, there is a high degree of trust, participation and reciprocity but it is necessary to strengthen exchange networks, also, it was observed a high degree of agro ecological and conservationist practices. Agro ecological transition is limited by public policy dynamics because there are no incentive programs and also there are few institutional incentives to support agro ecological work, even though it is established by the current Food sovereignty law. Participation and used of self-harvest seeds were related to municipality. Otavalo is the municipality that displays greater dynamism and progress in the process of agro-ecological transition. © 2020, Universidad del Zulia. All rights reserved.</t>
         </is>
       </c>
       <c r="E30" t="n">
@@ -1520,15 +1520,15 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Potential for food self-sufficiency improvements through indoor and vertical farming in the gulf cooperation council: Challenges and opportunities from the case of Kuwait</t>
+          <t>Practices of Food Sovereignty in Italy and England: Short Food Supply Chains and the Promise of De-Commodification</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>The countries of the Gulf Cooperation Council (GCC) are considered food secure due to their ability to import sufficient food to meet their populations’ demand, despite considerable environmental limitations to conventional agriculture. However, over-reliance on externally produced food leaves these countries vulnerable to food shortages during crises that disrupt international production and shipping. Advanced Controlled Environment Agriculture technology has the potential to improve food self-sufficiency by multiplying vegetable crop yields while optimizing efficiency of agricultural inputs and minimizing land requirements. This paper demonstrates how approximately 15 km2 of indoor farms or less than 0.1 km2 of vertical farms could reduce or eliminate the need to import six important vegetable crops in the State of Kuwait. If properly contextualized and supported by clear legislation and well-managed regulatory bodies, indoor agriculture initiatives may provide a pathway for GCC countries to reduce their dependence on imported foods and increase resilience to food supply disruption during disasters or conflict. This case study contextualizes the need for improved food self-sufficiency in light of vulnerabilities from regional and global threats, illuminates unique challenges faced by GCC countries considering adoption of the proposed technologies, and summarizes opportunities inherent in the current legal and policy framework. © 2021 by the authors. Licensee MDPI, Basel, Switzerland.</t>
+          <t>Alternative food networks are organisations of consumers and food producers that oversee and promote the functioning of short food supply chains, with the aim of fostering a direct and local exchange between producers and consumers. New short-chain economic infrastructures provide food producers – especially small-scale farmers – with a whole new set of commercial opportunities, directed towards the construction of an alternative food economy. But how does value circulate within these innovative economic platforms? And what values are debated, negotiated and exchanged through these circuits? Employing the analytical lenses of de-commodification and embeddedness, this article discusses the modalities and outcomes of the processes of value-creation and value-appropriation that spring out of the direct exchange occurring between consumers and food producers in the alternative food economy. Based on empirical data collected through extensive qualitative field research in Italy and England, the article exposes the dynamics and limits of the on-going processes of de-commodification, proposing an analysis centred on the concept of ‘partial’ de-commodification. This conceptual tool is used to assess the differences that emerged between the Italian and English fields, and to provide conclusive remarks about the potential of place- and culture-specific configurations of practices to advance a transformation of the food system. © 2019 The Authors. Sociologia Ruralis © 2019 European Society for Rural Sociology.</t>
         </is>
       </c>
       <c r="E31" t="n">
@@ -1556,15 +1556,15 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>The methodological strategies of agroecological research and the values with which they are linked</t>
+          <t>The importance of vision in food system transformation</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>The characteristic features of some of the methodological strategies adopted in scientific research in agroecology are discussed. They reflect that agroecology, as an approach to scientific research, is inextricably entangled with the other strands of agroecology (farming practice, social movement, political project); and that adopting agroecological strategies, and upholding the values of environmental sustainability, food sovereignty, social justice and democratic participation, mutually reinforce each other. After outlining the kinds of questions that agroecological research addresses so that it can produce knowledge that informs agroecological farming practices and the long term aspiration of agroecological movements to create an alternative agricultural/food system, and then making summary remarks about methodological strategies in general, three characteristic features of some agroecological strategies are introduced and discussed. The paper concludes with comments on the value of agroecological research. © 2021 Elsevier Ltd</t>
+          <t>Despite growing calls for food system transformation, the need to develop a vision to guide that transformation is sometimes overlooked. Vision is essential to inspire, mobilize, and keep a collective of people on track toward their goals. Individual visions can be exhilarating, but the visions that create change are taken up by large groups or movements of movements. A vision is a beginning for transformation, but it requires policy that enables it to be enacted, ideally through democratic processes. The vision, buttressed by policy and democratic governance, is what determines where people are able to buy food, how much they pay, whether farmers earn decent incomes, and whether the food is healthy. Without vision, policies are likely to be incoherent or to work at cross-purposes, as has happened in the farm bill and the European Union’s Common Agricultural Policy. A range of visions generated at different scales, from autonomous community to state to region, can serve as examples for people committed to food system transformation. © 2019 by the Author.</t>
         </is>
       </c>
       <c r="E32" t="n">
@@ -1592,7 +1592,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Beyond sustainability in food systems: Perspectives from agroecology and social innovation</t>
+          <t>‘Keeping seeds in our hands’: the rise of seed activism</t>
         </is>
       </c>
       <c r="C33" t="n">
@@ -1600,7 +1600,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Food security faces many multifaceted challenges, with effects ranging far beyond the sectors of agriculture and food science and involving all the multiscale components of sustainability. This paper puts forward our point of view about more sustainable and responsible approaches to food production research underlying the importance of knowledge and social innovation in agroecological practices. Increased demand for food worldwide and the diversification of food choices would suggest the adoption of highly productive, but low-resilient and unsustainable food production models. However, new perspectives are possible. These include the revitalization and valorization of family-based traditional agriculture and the promotion of diversified farming systems as a social and economic basis to foster social-ecological conversion. Additionally, they encompass the forecasting of the Participatory Guarantee Systems (PGS) and the drafting of a new agenda for food sovereignty. Thanks to a desk analysis, the study describes and discusses these perspectives, their trajectories and action research implications. The results suggest the need to adopt a more inclusive and systemic approach to the described problems, as the solutions require the promotion of responsibility within decision makers, professionals and consumers. This appears essential for reading, analyzing and understanding the complex ecological-functional, social and economic relations that characterize farming systems, as well as mobilizing local communities. © 2020 by the authors.</t>
+          <t>Semantic innovations like seed commons, peasant seeds and seed sovereignty are a powerful expression of what may be termed as seed activism. In this opening paper of the JPS Special Forum on Seed Activism, we explore the surge of mobilizations the world over in response to processes of seed enclosures and loss of agrobiodiversity. A historical overview of the evolution of seed activism over the past three decades traces a paradigm shift from farmers’ rights to seed sovereignty. Some of the main threats to peasant seed systems–from seed and intellectual property laws to biopiracy, corporate concentration and new genome editing technologies–are analyzed along with strategies by peasants and other activists to counter these developments. We take stock of what has been achieved so far and of the challenges ahead, and suggest some avenues for future research. © 2020, © 2020 The Author(s). Published by Informa UK Limited, trading as Taylor &amp; Francis Group.</t>
         </is>
       </c>
       <c r="E33" t="n">
@@ -1628,7 +1628,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Mainstreaming agricultural biodiversity in traditional production landscapes for sustainable development: The Indian scenario</t>
+          <t>Diverse seeds – shared practices: Conceptualizing seed commons</t>
         </is>
       </c>
       <c r="C34" t="n">
@@ -1636,7 +1636,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Mainstreaming biodiversity in production landscapes ensures conservation and sustainable use of agricultural biodiversity, the key objectives of the Convention on Biological Diversity (CBD) and the projects supported by the United Nations Environment Program (UNEP) Global Environment Facility (GEF). Mainstreaming integrates biodiversity in existing or new programs and policies, both cross‐sectoral and sector‐specific. The conventional model of agricultural production with limited diversity in production systems and use of high chemical input has taught us a valuable lesson as it is adversely impacting the environment, the essential ecosystem services, the soil health and the long term sustainability of our food systems. Using a qualitative participant observation approach, our study investigated four distinct traditional Indian production landscapes to gage (i) the farming communities’ response to institutional policies, programs and agricultural biodiversity‐related activities in traditional Indian production landscapes and (ii) opportunities and challenges for sustainable development in smallholder traditional Indian farming systems. Results indicate that the top‐down decision‐making regime is the least effective towards achieving sustainable development in traditional Indian farming landscapes and that farmers’ experiential knowledge on participatory biodiversity management, maintenance and use for sustainable development are of critical importance to India’s agriculture and economy. Reclaiming agriculture’s spiritual roots through organic farming and locally grown food emerged as key, including the need for designing and implementing a more sovereign food system. Revisiting traditional smallholder farming under the COVID‐19 pandemic and lessons learned for repurposing India’s agricultural policy are also highlighted. © 2020 by the authors. Licensee MDPI, Basel, Switzerland.</t>
+          <t>Commons approaches in the seed sector are multi-faceted: They span from traditional seed systems, i.e. seed sharing networks, to recent anti-enclosure movements that resist intellectual property rights on varieties, like organic breeding initiatives. This paper derives a conceptualization of ‘Seed Commons’ at the local and regional level, based on a comprehensive transdisciplinary research process that integrates diverse types of knowledge, both from practitioners (German and Philippine seed initiatives, companies and NGOs), and the scientific community. As a result, we identify four core criteria that characterize diverse Seed Commons arrangements at local and regional scales: (1) collective responsibility, (2) protection from private enclosure, (3) collective, polycentric management, and (4) sharing of formal and practical knowledge. Discussing these Seed Commons criteria in the context of different Commons approaches, we find that Seed Commons transcend the distinction between traditional (natural resource) Commons and New Commons approaches, by integrating biophysical, informational and cultural elements in their collective governance. Reaching beyond resource characteristics, the Seed Commons criteria reflect practices of Commoning, which aim to fulfill social functions such as farmer empowerment and food sovereignty. © 2020 The Author(s).</t>
         </is>
       </c>
       <c r="E34" t="n">
@@ -1664,15 +1664,15 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Opportunities and barriers in diversified farming and the use of agroecological principles in the Global North–The experiences of Danish biodynamic farmers</t>
+          <t>“Going local”: farmers’ perspectives on local food systems in rural Canada</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Diversification through agroecological principles may maintain and stabilize yields in an increasingly more unpredictable climate, including market price fluctuations, as well as preserve and enhance the threatened natural resource base and the environment. Based on a participatory interview process this article identifies the barriers encountered by a group of Danish biodynamic farmers striving for self-sufficient farm systems with no or very little dependency on imported materials by developing biologically, economically and socially diverse farms. Through an iterative interview process the study found that barriers outside farm management are hindering the transition toward diverse farming and that a further exploration of the need for and implications of food sovereignty in the Global North might generate the discussions needed to support implementation of more agroecological farming system practises. © 2020 The Author(s). Published with license by Taylor &amp; Francis Group, LLC.</t>
+          <t>Amid the highly industrialized, export-focused food system of the Canadian prairies, some farmers and consumers are turning to localized agriculture as an alternative—they are “going local”. Despite farmers’ obvious importance to the food system, surprisingly little research has examined their motivations and reasons for localization. To date, most local food scholarship in North America has focused on either consumers’ motivations to buy local or the systemic aspects of local food, such as regulations, infrastructure, and marketing arrangements. Existing research suggests that local food systems are supported by consumers’ rejection of the industrial paradigm and desire to (re)connect with their food and its source. But what drives farmers to localize, particularly when export-focused production is firmly entrenched as the status quo? Based on interviews and focus groups with 60 farmers, processors, policy experts, and retailers in the Canadian prairie province of Saskatchewan, this paper examines local food systems from the producer perspective in a rural context of high industrialization and geographical dispersion. We examine what motivates farmers to produce for local markets, and what forces they must resist to do so. The findings indicate that farmers’ main motivations for localization are political and social in nature, and stem from a critique of the dominant neoliberal agri-food system. We map farmers’ agential responses to this dominant system on a spectrum that ranges from acceptance of a neoliberal “feed the world” ideology to promotion of food sovereignty. Drawing on farmers’ perspectives, our findings question the straightforward equation of local food with environmental sustainability and also challenge neoliberal economic assumptions of “scaling up”. © 2019, Springer Nature B.V.</t>
         </is>
       </c>
       <c r="E35" t="n">
@@ -1700,7 +1700,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Transition to agroecology for improved food security and better living conditions: case study from a family farm in Pinar del Río, Cuba</t>
+          <t>From hoes to story-telling as "weapons of the weak": Farmers' resistance to neoliberal 2007 multi-product management stabilization plan in Japan</t>
         </is>
       </c>
       <c r="C36" t="n">
@@ -1708,7 +1708,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>The process of transition to agroecology of family farms is a topic of great importance in Cuba and the need to support family farming is gaining worldwide attention, while agroecology has been recognized as the most promising approach for the sustainable development of smallholder farmers. This work analyzes the process of agroecological conversion implemented by a family farm in western Cuba, highlighting the causes that enabled the process of transition and examining its effects on the family’s food security and livelihoods. The study shows how all the four aspects of food security–availability, access, stability, and utilization–have improved after the transition to agroecology, while positive impacts are also registered in soil quality, environmental sustainability, and resilience. From the point of view of economic sustainability, the transition has had high costs at the beginning but, after three years, agroecological production is resulting in increased income and better living conditions. The work also suggests actions to be implemented in order to advance in the process of transition to agroecology and hence achieve full food sovereignty. © 2020 Taylor &amp; Francis.</t>
+          <t>While neoliberalism has promoted free trade, market rule, and productivist agriculture in the food production system, farmers and their unions in developed countries partially managed to shun the forces of neoliberalism. What are the underpinning strength and factors of such resilience? Discussions have concentrated at national policy and organizational level and tacit resistance at community and farm levels remain unexplored, inter alia from their historical embeddedness perspective. This study explores the way Japanese farmers frame their contemporary political situation with neoliberalism of the late 2000s with a grounded approach of face-to-face interview at a community level. The farmers resist it mobilizing Scott's anthropological notion of "Weapons of the Weak"through story-telling instead of hoes in ancient time (Scott JC, Weapons of the weak: everyday forms of peasant resistance, 1985). In concrete, the farmers resisted a neoliberal policy of Hinmoku Odanteki Keiei Antei Taisaku, or the Multi- Product Management Stabilization Plan (MPP), in the early 2000s, which promoted larger scale farming to pursue the efficiency of scale merits. The policy was first introduced in 2005 as a concept and dominated the agricultural policy scenes from 2007 to 2009, and then its influence disappeared toward 2010. The rise and fall of the concept and policy provide us with rare opportunity to examine the historical embeddedness of the farmers and their resistance to such neoliberal globalization. We conducted interviews with the leaders of cooperative farms and stakeholders in Daisen City, Akita Prefecture, Japan; the study found that farmers' framing of neoliberalism was ambivalent causing partial adoption and resistance. The leaders of the cooperative farms could form the cooperative farms but thought further development difficult because members intended to keep their farming independent. Close frame and discourse analysis revealed that farmers in Japan could express their frustration on neoliberal discourse and policy through multiple tactics of "Weapons of the Weak"by complaining to the leaders, miscalculating the figures, or claiming family-based food sovereignty that "we produce what goes into our family mouths."Such tactics procrastinated the process and eventually stopped the policy. The incident demonstrates how farmers in the network can slow the progress of neoliberal discourse and policy implementation. From the analysis, the notion of "Weapons of the Weak"can be applied as a part of the combination with farmers' historical embeddedness, symbolism of foods, framing, and electoral resistance.  © 2020 The Author(s).</t>
         </is>
       </c>
       <c r="E36" t="n">
@@ -1736,15 +1736,15 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Agroholdings, Technology, And The PoliTicAl economy of russiAn AgriculTure</t>
+          <t>NGO perspectives on the social and ethical dimensions of plant genome-editing</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Research for this article was conducted with the support of the Swiss National Science Foundation, the Swedish Collegium for Advanced Studies, and the University of Notre Dame. This article details the rise of Russian agricultural corporations, known as the agroholdings. These companies have accumulated control of Russia’s most fertile land over the last 20 years and have become the main producers of agricultural commodities and processed food. They are also the driving force of a profound technological transformation of agriculture and food production during this time. A core claim of this article is that the technopolitics of twenty-first-century Russian agriculture made the meteoric rise of agroholdings possible. Technology was central to both the economic and political roles of these large, vertically integrated agricultural conglomerates. Agroholdings grew rapidly because they adopted cutting-edge agricultural technologies that maximized yields and economic efficiency. Agroholdings’ control of technologies earned them, in turn, the political support they needed to thrive in the state capitalist system of the Putin era. They were privileged allies of President Vladimir Putin’s government, which sought to enlist them for the political goals of strengthening domestic farming and food production and reducing Russia’s dependence on food imports. More broadly, the article suggests that a technopolitical lens recasts and improves our understanding of the political economy of post-Soviet Russia. Technopolitics reveals the role of both the state and corporate actors, of power and capital, in the construction of a new economic order and draws attention to how these processes shape post-Soviet byt. © Laboratorium: Russian Review of Social Research</t>
+          <t>Plant genome editing has the potential to become another chapter in the intractable debate that has dogged agricultural biotechnology. In 2016, 107 Nobel Laureates accused Greenpeace of emotional and dogmatic campaigning against agricultural biotechnology and called for governments to defy such campaigning. The Laureates invoke the authority of science to argue that Greenpeace is putting lives at risk by opposing agricultural biotechnology and Golden Rice and is notable in framing Greenpeace as unethical and its views as marginal. This paper examines environmental, food and farming NGOs’ social and ethical concerns about genome editing, situating these concerns in comparison to alternative ethical assessments provided by the Nuffield Council on Bioethics, a key actor in this policy debate. In doing so, we show that participant NGOs and the Nuffield Council on Bioethics share considerable concerns about the social and ethical implications of genome editing. These concerns include choices over problem/solution framing and broader terminology, implications of regulatory and research choices on consumer choice and relations of power. However, GM-engaged NGOs and the Nuffield Council on Bioethics diverge on one important area: the NGOs seek to challenge the existing order and broaden the scope of debate to include deeply political questions regarding agricultural and technological choices. This distinction between the ethical positions means that NGOs provide valuable ethical insight and a useful lens to open up debate and discussion on the role of emerging technologies, such as genome editing, and the future of agriculture and food sovereignty. © 2019, Springer Nature B.V.</t>
         </is>
       </c>
       <c r="E37" t="n">
@@ -1772,15 +1772,15 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Land grabs, farmworkers, and rural livelihoods in West Africa: some silences in the food sovereignty discourse</t>
+          <t>Enforceability of decisions of the Agricultural Paying Agency in matters of direct payments</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>The global land rush has spurred small, modest, and big anti-land grab mobilizations, notably the food sovereignty movement. The movement has been instrumental in representing the interests of small-scale family farmers whose livelihoods are threatened by capitalist control over land in the countryside. However, this dominant narrative tends to overlook or de-emphasize some important diversity within the peasantry. In West Africa, anti-land grab discourses emphasize family farming as a major collective action frame, focusing less on issues related to agricultural wage labour–farmworkers’ access to land, food, and decent working conditions. If food sovereignty is to fully realize its potential power as a counter-narrative to neoliberalism, and as a possible democratic alternative for working people with differentiated and at times competing socio-economic interests, then demands that adequately reflect the agrarian struggles of the rural working people have to be put onto the agenda and engaged better than it is now. © 2020 The Author(s). Published by Informa UK Limited, trading as Taylor &amp; Francis Group.</t>
+          <t>Since its inception, the Common Agricultural Policy has been the largest among all common European policies. The main objective of the Common agricultural policy is food sovereignty in the European Union, stabilization of farmers' incomes and, at present, support for non-production functions of agriculture and environmental protection. Given the rising input prices and the time mismatch between supply and demand for agricultural products, the first pillar of the CAP has become a key tool for sustaining the desired competitiveness of agricultural products in the EU Member States. Direct payments have become an important tool for Slovak farmers, and therefore their effective implementation is essential for their continued existence or development. The aim of the paper was to point out the weak enforceability of direct payments to eligible users of agricultural land if there is a conflicting legal entitlement to provide a direct payment in accordance with §28 and §29 of Act no. 280/2017 Coll. and the resulting problems for eligible applicants. © 2020 by the author(s).</t>
         </is>
       </c>
       <c r="E38" t="n">
@@ -1808,7 +1808,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Agro-ecological transition of agricultural production systems at imbabura province of Ecuador; [Transição agroecológica de sistemas de produção agrícola na província de imbabura Equador]; [Transición agroecológica de los sistemas de producción agrícola de la provincia de imbabura Ecuador]</t>
+          <t>Politics of law of the protection of plant variety (Pvt) and its implications for food security in indonesia: A maqashid al-shari'ah perspective</t>
         </is>
       </c>
       <c r="C39" t="n">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Transitional processes from conventional agricultural systems to agro ecological production systems has been promoted at Imbabura province in Ecuador, but development difficulties have been observed, due to farmer’s decisions for embracing transition, depends not only on the technology and local resources available, but also on several aspects of the surrounding social, economic and institutional system. A research was conducted, in order to characterize the transitional agro ecological degree of production systems at Imbabura province, regarding the social cooperation activity, the natural resources management and the public policies dynamics, A stratified random sample of 50 producers was taken, to whom a questionnaire was applied. Data was analyzed by descriptive statistics. Cramer test was used to determine the relationships of each item to municipalities. Results showed that, in social dynamics, there is a high degree of trust, participation and reciprocity but it is necessary to strengthen exchange networks, also, it was observed a high degree of agro ecological and conservationist practices. Agro ecological transition is limited by public policy dynamics because there are no incentive programs and also there are few institutional incentives to support agro ecological work, even though it is established by the current Food sovereignty law. Participation and used of self-harvest seeds were related to municipality. Otavalo is the municipality that displays greater dynamism and progress in the process of agro-ecological transition. © 2020, Universidad del Zulia. All rights reserved.</t>
+          <t>The birth of the Law on Plant Variety Protection (PVP) is a consequence of Indonesia in its participation as a signatory country for the GATT/WTO agreement, which one of the series of agreements contains Trade-Related Aspects of Intellectual Property Rights (TRIPs). This agreement implies that after ratification, Indonesia must harmonize legislation in the field of intellectual property rights with the approval of TRIPs, including in the field of Plant Variety Protection. Philosophically there are several provisions in the PVP Law that need to be observed. One of them is the focus of this law that prioritizes economic interests and breeder rights rather than farmer rights. By using qualitative research and philosophical approach, this study concludes: First, in the perspective of politics of law, the protection of plant varieties in Indonesia has not been based on an ideal basis of Indonesian politics of law. Ideally, the stipulation of law in Indonesia must prioritize an ideological and normative basis that originates from Pancasila and the UUD 1945 as central values and are essential to Indonesian politics of law. Second, Plant Variety Protection in Indonesia is still oriented to food security, not to the limit of food sovereignty. The orientation of the Law on PVP should lead to efforts to liberate this country from the element of dependence on other countries by leading to food sovereignty. Third, in the perspective of Maqashid Sharia, the protection of Plant Varieties in Indonesia has not yet described efforts to create benefit for the Indonesian nation as a whole. The nature of Maqashid sharia is a benefit that rests on the interests of society in general. © IJSTR 2020.</t>
         </is>
       </c>
       <c r="E39" t="n">
@@ -1844,15 +1844,15 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Practices of Food Sovereignty in Italy and England: Short Food Supply Chains and the Promise of De-Commodification</t>
+          <t>Extrafamilial farm succession: an adaptive strategy contributing to the renewal of peasantries in Austria</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Alternative food networks are organisations of consumers and food producers that oversee and promote the functioning of short food supply chains, with the aim of fostering a direct and local exchange between producers and consumers. New short-chain economic infrastructures provide food producers – especially small-scale farmers – with a whole new set of commercial opportunities, directed towards the construction of an alternative food economy. But how does value circulate within these innovative economic platforms? And what values are debated, negotiated and exchanged through these circuits? Employing the analytical lenses of de-commodification and embeddedness, this article discusses the modalities and outcomes of the processes of value-creation and value-appropriation that spring out of the direct exchange occurring between consumers and food producers in the alternative food economy. Based on empirical data collected through extensive qualitative field research in Italy and England, the article exposes the dynamics and limits of the on-going processes of de-commodification, proposing an analysis centred on the concept of ‘partial’ de-commodification. This conceptual tool is used to assess the differences that emerged between the Italian and English fields, and to provide conclusive remarks about the potential of place- and culture-specific configurations of practices to advance a transformation of the food system. © 2019 The Authors. Sociologia Ruralis © 2019 European Society for Rural Sociology.</t>
+          <t>This article examines extrafamilial farm transmission, a process that brings together elderly farmers without successors and young people who aspire to farm but face various economic, social and cultural barriers to enter into the sector. First-hand accounts of the process from Austrian smallholders are systematically analysed to produce a stage-by-stage model. The multigenerational non-familial agrarian partnership this represents offers an alternative mechanism for maintaining small-scale food production and improving food security and food sovereignty. It is recommended as an adaptive strategy for the survival and re-generation of peasantry in the twenty-first century. © 2018, © 2018 The Author(s). Published by Informa UK Limited, trading as Taylor &amp; Francis Group.</t>
         </is>
       </c>
       <c r="E40" t="n">
@@ -1880,7 +1880,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>The importance of vision in food system transformation</t>
+          <t>Agroecologies of displacement: a study of land access, dislocation, and migration in relation to sustainable food production in the Beach Flats Community Garden</t>
         </is>
       </c>
       <c r="C41" t="n">
@@ -1888,7 +1888,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Despite growing calls for food system transformation, the need to develop a vision to guide that transformation is sometimes overlooked. Vision is essential to inspire, mobilize, and keep a collective of people on track toward their goals. Individual visions can be exhilarating, but the visions that create change are taken up by large groups or movements of movements. A vision is a beginning for transformation, but it requires policy that enables it to be enacted, ideally through democratic processes. The vision, buttressed by policy and democratic governance, is what determines where people are able to buy food, how much they pay, whether farmers earn decent incomes, and whether the food is healthy. Without vision, policies are likely to be incoherent or to work at cross-purposes, as has happened in the farm bill and the European Union’s Common Agricultural Policy. A range of visions generated at different scales, from autonomous community to state to region, can serve as examples for people committed to food system transformation. © 2019 by the Author.</t>
+          <t>In this article, the Beach Flats Community Garden is used as a case study to theorize an “agroecologies of displacement.” We argue that farmers are increasingly less singularly place-based through involuntary displacement and that displacement and dispossession can shape agricultural practices in farming communities. We follow Cohen (2010), Kerssen and Brent (2017), and others in calling for the necessity to bring a historical and focused analysis of displacement, dispossession, and the dynamics of land under capitalist systems to our understanding of the articulations of food movements, in particular transformative agroecologies. © 2018, © 2018 Taylor &amp; Francis.</t>
         </is>
       </c>
       <c r="E41" t="n">
@@ -1916,15 +1916,15 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>‘Keeping seeds in our hands’: the rise of seed activism</t>
+          <t>Integration model of food security system and food sovereignty system in Indonesia</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Semantic innovations like seed commons, peasant seeds and seed sovereignty are a powerful expression of what may be termed as seed activism. In this opening paper of the JPS Special Forum on Seed Activism, we explore the surge of mobilizations the world over in response to processes of seed enclosures and loss of agrobiodiversity. A historical overview of the evolution of seed activism over the past three decades traces a paradigm shift from farmers’ rights to seed sovereignty. Some of the main threats to peasant seed systems–from seed and intellectual property laws to biopiracy, corporate concentration and new genome editing technologies–are analyzed along with strategies by peasants and other activists to counter these developments. We take stock of what has been achieved so far and of the challenges ahead, and suggest some avenues for future research. © 2020, © 2020 The Author(s). Published by Informa UK Limited, trading as Taylor &amp; Francis Group.</t>
+          <t>This research is important to integrate Food Security system with Food Sovereignty system. Starting from the current condition that the Food Security has not been integrated with Food Sovereignty system yet. It is known that Food Security system is developed by free market economy system, while Food Sovereignty system is determined based on national interest of a country in choosing food system considered suitable to be applied in its country. For the current condition in Indonesia, the food system still refers to the Food Security system. The Government does not have capacity to intervene the market directly and consequently, the number of food imports becomes high and the welfare of farmers slumps. Through this research, it is necessary to arrange and adapt the application of Integrated Model construction of Food Security System Integration and Food Sovereignty to Achieve Sustainable Food Self-Sufficiency in Indonesia. This research was conducted by using juridical-empirical approach which is oriented to holistic study and in its process, legal discipline gets the assistance of related discipline, such as economics, politics, technique, environment, human rights, social, and culture. The analysis of the research object was conducted through legal analysis. in addition to library research, data collection techniques used is field surveys and the analytical technique used is Cost-Benefit-Analysis (CBA).The result of this research is the arrangement of Integration Model Construction of Food Security System and Food Sovereignty to Achieve Sustainable Food Self-Sufficiency in Indonesia. © 2019, Institute of Advanced Scientific Research, Inc.. All rights reserved.</t>
         </is>
       </c>
       <c r="E42" t="n">
@@ -1952,15 +1952,15 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Diverse seeds – shared practices: Conceptualizing seed commons</t>
+          <t>Could social farming be a strategy to support food sovereignty in Europe?</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Commons approaches in the seed sector are multi-faceted: They span from traditional seed systems, i.e. seed sharing networks, to recent anti-enclosure movements that resist intellectual property rights on varieties, like organic breeding initiatives. This paper derives a conceptualization of ‘Seed Commons’ at the local and regional level, based on a comprehensive transdisciplinary research process that integrates diverse types of knowledge, both from practitioners (German and Philippine seed initiatives, companies and NGOs), and the scientific community. As a result, we identify four core criteria that characterize diverse Seed Commons arrangements at local and regional scales: (1) collective responsibility, (2) protection from private enclosure, (3) collective, polycentric management, and (4) sharing of formal and practical knowledge. Discussing these Seed Commons criteria in the context of different Commons approaches, we find that Seed Commons transcend the distinction between traditional (natural resource) Commons and New Commons approaches, by integrating biophysical, informational and cultural elements in their collective governance. Reaching beyond resource characteristics, the Seed Commons criteria reflect practices of Commoning, which aim to fulfill social functions such as farmer empowerment and food sovereignty. © 2020 The Author(s).</t>
+          <t>Food sovereignty (FS) aims to obtain value-added products in proximity agriculture (PA) in order to achieve food security in a country. Social farming (SF) can help to develop this PA as well as favoring integration of people at risk of social exclusion (RSE). The methodology includes a review of the literature, a survey of 161 SF projects in Catalonia, and ten selected in-depth interviews. “Social Return on Investment” (SROI) methodology is also applied to assess the efficiency of the projects analyzed. The results show the economic, social, and environmental viability of the majority of the SF projects which, also favored by FS and PA, allows the development of innovative experiences and sustainable forms of governance. SF has been carried out in different ways in European countries, although with the common aims of benefitting people at RSE, and using the natural environment and PA through projects basically promoted by Third Sector entities. Management of these projects is in the hands of foundations and non-profit companies making top-down decisions, and in cooperatives and associations, where decision-making is bottom-up. It can be concluded that the promotion of SF can favor PA, and therefore, FS in Europe. © 2019 by the authors. Licensee MDPI, Basel, Switzerland.</t>
         </is>
       </c>
       <c r="E43" t="n">
@@ -1988,15 +1988,15 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>“Going local”: farmers’ perspectives on local food systems in rural Canada</t>
+          <t>Beyond the “special period”: land reform, supermarkets and the prospects for peasant-driven food sovereignty in post-socialist Cuba (2008–2017)</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Amid the highly industrialized, export-focused food system of the Canadian prairies, some farmers and consumers are turning to localized agriculture as an alternative—they are “going local”. Despite farmers’ obvious importance to the food system, surprisingly little research has examined their motivations and reasons for localization. To date, most local food scholarship in North America has focused on either consumers’ motivations to buy local or the systemic aspects of local food, such as regulations, infrastructure, and marketing arrangements. Existing research suggests that local food systems are supported by consumers’ rejection of the industrial paradigm and desire to (re)connect with their food and its source. But what drives farmers to localize, particularly when export-focused production is firmly entrenched as the status quo? Based on interviews and focus groups with 60 farmers, processors, policy experts, and retailers in the Canadian prairie province of Saskatchewan, this paper examines local food systems from the producer perspective in a rural context of high industrialization and geographical dispersion. We examine what motivates farmers to produce for local markets, and what forces they must resist to do so. The findings indicate that farmers’ main motivations for localization are political and social in nature, and stem from a critique of the dominant neoliberal agri-food system. We map farmers’ agential responses to this dominant system on a spectrum that ranges from acceptance of a neoliberal “feed the world” ideology to promotion of food sovereignty. Drawing on farmers’ perspectives, our findings question the straightforward equation of local food with environmental sustainability and also challenge neoliberal economic assumptions of “scaling up”. © 2019, Springer Nature B.V.</t>
+          <t>When Cuba’s trade-based food security strategy was threatened by the collapse of the socialist trading block in 1989–1991, the popular response of small and irregular farmers proved vital in providing a minimum food basket during the ensuing crisis. In 2008, a large-scale land reform sought to expand this development towards food sovereignty. We evaluate the reform impacts, finding that after an initial surge in 2009–2010, food production and land use have rebounded and stagnated at pre-reform levels. Peasant-led agricultural development is forestalled by inaccessibility of appropriate technologies, perceived land tenure insecurity, missing/deficient markets and competition from import-based supermarket chains. © 2019, © 2019 The Author(s). Published by Informa UK Limited, trading as Taylor &amp; Francis Group.</t>
         </is>
       </c>
       <c r="E44" t="n">
@@ -2024,15 +2024,15 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>From hoes to story-telling as "weapons of the weak": Farmers' resistance to neoliberal 2007 multi-product management stabilization plan in Japan</t>
+          <t>Enhancing smallholder resilience through place-based knowledge and resource generation</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>While neoliberalism has promoted free trade, market rule, and productivist agriculture in the food production system, farmers and their unions in developed countries partially managed to shun the forces of neoliberalism. What are the underpinning strength and factors of such resilience? Discussions have concentrated at national policy and organizational level and tacit resistance at community and farm levels remain unexplored, inter alia from their historical embeddedness perspective. This study explores the way Japanese farmers frame their contemporary political situation with neoliberalism of the late 2000s with a grounded approach of face-to-face interview at a community level. The farmers resist it mobilizing Scott's anthropological notion of "Weapons of the Weak"through story-telling instead of hoes in ancient time (Scott JC, Weapons of the weak: everyday forms of peasant resistance, 1985). In concrete, the farmers resisted a neoliberal policy of Hinmoku Odanteki Keiei Antei Taisaku, or the Multi- Product Management Stabilization Plan (MPP), in the early 2000s, which promoted larger scale farming to pursue the efficiency of scale merits. The policy was first introduced in 2005 as a concept and dominated the agricultural policy scenes from 2007 to 2009, and then its influence disappeared toward 2010. The rise and fall of the concept and policy provide us with rare opportunity to examine the historical embeddedness of the farmers and their resistance to such neoliberal globalization. We conducted interviews with the leaders of cooperative farms and stakeholders in Daisen City, Akita Prefecture, Japan; the study found that farmers' framing of neoliberalism was ambivalent causing partial adoption and resistance. The leaders of the cooperative farms could form the cooperative farms but thought further development difficult because members intended to keep their farming independent. Close frame and discourse analysis revealed that farmers in Japan could express their frustration on neoliberal discourse and policy through multiple tactics of "Weapons of the Weak"by complaining to the leaders, miscalculating the figures, or claiming family-based food sovereignty that "we produce what goes into our family mouths."Such tactics procrastinated the process and eventually stopped the policy. The incident demonstrates how farmers in the network can slow the progress of neoliberal discourse and policy implementation. From the analysis, the notion of "Weapons of the Weak"can be applied as a part of the combination with farmers' historical embeddedness, symbolism of foods, framing, and electoral resistance.  © 2020 The Author(s).</t>
+          <t>Rice systems are of particular significance to building climate resilience in the Philippines. This research brief summarizes a case study that comparatively measures differences in climate resilience between organic and conventional rice systems in four neighboring villages in Negros Occidental Province, as well as explores features of smallholder rice systems that are significant to building resilience. Data were collected through surveys, interviews, focus groups, and participant observation. A participatory approach was applied to account for socioecological context and to identify targeted interventions for enhancing climate resilience based on local conditions and farmer experiences. The results indicate that (a) of the participating rice systems, organic systems exhibit greater resilience than their conventional counterparts; (b) the current institutional arrangement prevents smallholders from transitioning to organic; and (c) a polycentric food sovereignty development approach helps Philippine smallholders overcome these institutional barriers, as well as builds smallholder capacities for resilience by supporting place-based knowledge and resource generation. More effort is needed to explore, analyze, and strengthen such polycentric food sovereignty interventions for climate change. © 2019 by the Author.</t>
         </is>
       </c>
       <c r="E45" t="n">
@@ -2060,7 +2060,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>NGO perspectives on the social and ethical dimensions of plant genome-editing</t>
+          <t>Agroecology and food sovereignty</t>
         </is>
       </c>
       <c r="C46" t="n">
@@ -2068,7 +2068,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Plant genome editing has the potential to become another chapter in the intractable debate that has dogged agricultural biotechnology. In 2016, 107 Nobel Laureates accused Greenpeace of emotional and dogmatic campaigning against agricultural biotechnology and called for governments to defy such campaigning. The Laureates invoke the authority of science to argue that Greenpeace is putting lives at risk by opposing agricultural biotechnology and Golden Rice and is notable in framing Greenpeace as unethical and its views as marginal. This paper examines environmental, food and farming NGOs’ social and ethical concerns about genome editing, situating these concerns in comparison to alternative ethical assessments provided by the Nuffield Council on Bioethics, a key actor in this policy debate. In doing so, we show that participant NGOs and the Nuffield Council on Bioethics share considerable concerns about the social and ethical implications of genome editing. These concerns include choices over problem/solution framing and broader terminology, implications of regulatory and research choices on consumer choice and relations of power. However, GM-engaged NGOs and the Nuffield Council on Bioethics diverge on one important area: the NGOs seek to challenge the existing order and broaden the scope of debate to include deeply political questions regarding agricultural and technological choices. This distinction between the ethical positions means that NGOs provide valuable ethical insight and a useful lens to open up debate and discussion on the role of emerging technologies, such as genome editing, and the future of agriculture and food sovereignty. © 2019, Springer Nature B.V.</t>
+          <t>We propose that agroecology provides a framework for understanding ‘levels’ for the transition to sustainable food systems. If we agree that agroecology includes social and political dimensions of governing territorial food systems, then it must be linked to movements for food sovereignty. However, the concentration of power in food and farming systems locks in industrial logic, posing immense barriers to agroecological and social transition. This creates a tension between efforts at convergence of food system innovations from below, versus co-optation of grass-roots language and practices by private and public actors who are committed not to changing the logic of industrial agriculture, but instead to reducing its harm. We suggest agroecological and food sovereignty movements consciously embrace this tension as a dance of creativity and appropriation. If this dance can be made generative rather than deadly, it can open pathways for transition to new ways of seeing, experiencing, and getting food. © 2019 The Authors. IDS Bulletin and Institute of Development Studies.</t>
         </is>
       </c>
       <c r="E46" t="n">
@@ -2096,15 +2096,15 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Enforceability of decisions of the Agricultural Paying Agency in matters of direct payments</t>
+          <t>Human ecology and food systems: Insights from the Philippines</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Since its inception, the Common Agricultural Policy has been the largest among all common European policies. The main objective of the Common agricultural policy is food sovereignty in the European Union, stabilization of farmers' incomes and, at present, support for non-production functions of agriculture and environmental protection. Given the rising input prices and the time mismatch between supply and demand for agricultural products, the first pillar of the CAP has become a key tool for sustaining the desired competitiveness of agricultural products in the EU Member States. Direct payments have become an important tool for Slovak farmers, and therefore their effective implementation is essential for their continued existence or development. The aim of the paper was to point out the weak enforceability of direct payments to eligible users of agricultural land if there is a conflicting legal entitlement to provide a direct payment in accordance with §28 and §29 of Act no. 280/2017 Coll. and the resulting problems for eligible applicants. © 2020 by the author(s).</t>
+          <t>Feeding the world sustainably requires balancing social, economic, and environmental concerns. The food systems concept guides the study of social and environmental processes that influence food and nutrition security. Human ecology conceptually offers insights into the social components of a system and its interaction with environmental change. This paper demonstrates how human ecology helps identify the dominant discourses that influence dominant social drivers in food systems. This is done through documenting the historical legacies of agricultural commodity production systems in the Philippines since Spanish colonization, and the human and ecological implications of this history. The analysis shows the presence of a maladaptive system influenced by market-oriented food security as a dominant discourse. Alternative discourses focused on sovereignty and participation exist in the Philippines, however these are often marginalised from dominant policy and research programs. The paper discusses how weak feedback processes provide possible intervention points in policy or farmer-led activities to explore alternative pathways to food and nutrition security. The paper concludes with highlighting how human ecology offers useful framework for advancing food systems analysis into social, political, and policy dimensions of food activities. Such analysis can help develop new research and policies that require managing the competing discourses of how to achieve sustainable food and nutrition security. © 2018, Society for Human Ecology. All rights reserved.</t>
         </is>
       </c>
       <c r="E47" t="n">
@@ -2132,15 +2132,15 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Politics of law of the protection of plant variety (Pvt) and its implications for food security in indonesia: A maqashid al-shari'ah perspective</t>
+          <t>African Green Revolution, food sovereignty and constrained livelihood choice in Mozambique</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>The birth of the Law on Plant Variety Protection (PVP) is a consequence of Indonesia in its participation as a signatory country for the GATT/WTO agreement, which one of the series of agreements contains Trade-Related Aspects of Intellectual Property Rights (TRIPs). This agreement implies that after ratification, Indonesia must harmonize legislation in the field of intellectual property rights with the approval of TRIPs, including in the field of Plant Variety Protection. Philosophically there are several provisions in the PVP Law that need to be observed. One of them is the focus of this law that prioritizes economic interests and breeder rights rather than farmer rights. By using qualitative research and philosophical approach, this study concludes: First, in the perspective of politics of law, the protection of plant varieties in Indonesia has not been based on an ideal basis of Indonesian politics of law. Ideally, the stipulation of law in Indonesia must prioritize an ideological and normative basis that originates from Pancasila and the UUD 1945 as central values and are essential to Indonesian politics of law. Second, Plant Variety Protection in Indonesia is still oriented to food security, not to the limit of food sovereignty. The orientation of the Law on PVP should lead to efforts to liberate this country from the element of dependence on other countries by leading to food sovereignty. Third, in the perspective of Maqashid Sharia, the protection of Plant Varieties in Indonesia has not yet described efforts to create benefit for the Indonesian nation as a whole. The nature of Maqashid sharia is a benefit that rests on the interests of society in general. © IJSTR 2020.</t>
+          <t>This article examines the complicated food security agendas of the African Green Revolution and the food sovereignty models in Mozambique. Drawing on fieldwork conducted by the author in Mozambique in 2014 and 2015, the paper analyses how smallholder farmers engage with these two agrarian models. Whereas the literature frequently presents the African Green Revolution and the food sovereignty in oppositional frames, this paper finds that farmers in Mozambique utilize some of the tools that these models offer in complementary rather than competing ways. One such area is the use of commercial hybrid seeds and herbicides by some farmers associated with food sovereignty, an approach that runs counter to food sovereignty’s principles of agroecology. In Mozambique, farmers’ “lived experience” of food sovereignty is more a strategic response to their limited livelihood options, using whatever tools are available to them, rather than a resistance to power. © 2018, © 2018 Canadian Association of African Studies.</t>
         </is>
       </c>
       <c r="E48" t="n">
@@ -2168,15 +2168,15 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Flux, unrelenting–the struggle for local seed sovereignty in Nicaragua</t>
+          <t>Food security or food sovereignty?: Questioning the paradigm of Indonesian military involvement in agriculture</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Most farmers are not activists. They make, however, their own sense of the world and act–sometimes quite stubbornly–according to that sense given, grasping what they perceive as opportunities, and protecting what they feel as essential for their livelihood. Political projects for Nicaraguan society, international policy-making, corporate strategies and imperial ambitions engage with and affect the varieties grown locally. The article analyses the creativity and political potential, as well as the contradictions and inconsistencies of the quotidian practice of seed saving under extreme constraint in light of the major struggles about Nicaraguan seed legislation. © 2020, © 2020 Informa UK Limited, trading as Taylor &amp; Francis Group.</t>
+          <t>Indonesian military (TNI) involvement in the agricultural sector had begun since the 1960s when they had a significant role in a global modernization of agriculture project led by the US government and world donor agencies, namely the Green Revolution. In 2015, TNI signed a MoU with the Ministry of Agriculture in a "Special Efforts Program for Accelerating Food Production" which again delivers an important role to the military in the agricultural sector by implementing a Green Revolution oriented farming. This paper, in contrasts to some of the previous writings, does not examine the right or wrong of this involvement. This study provides a paradigmatic response to a question, why TNI insists on implementing a program that after 50 years has not proven successful in reaching the target of food self-sufficiency? Based on literature studies and analysis of empirical data, this study suggests that there is a paradigmatic misperception among the policy makers, both civil and military, about food security concept. The authors also offer a new implementation framework based on the concept of food sovereignty that can be performed by policy makers in Indonesia and other developing countries. © 2018 CEJISS.</t>
         </is>
       </c>
       <c r="E49" t="n">
@@ -2204,15 +2204,15 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Extrafamilial farm succession: an adaptive strategy contributing to the renewal of peasantries in Austria</t>
+          <t>Black Farmers in the USA and Michigan: Longevity, Empowerment, and Food Sovereignty</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>This article examines extrafamilial farm transmission, a process that brings together elderly farmers without successors and young people who aspire to farm but face various economic, social and cultural barriers to enter into the sector. First-hand accounts of the process from Austrian smallholders are systematically analysed to produce a stage-by-stage model. The multigenerational non-familial agrarian partnership this represents offers an alternative mechanism for maintaining small-scale food production and improving food security and food sovereignty. It is recommended as an adaptive strategy for the survival and re-generation of peasantry in the twenty-first century. © 2018, © 2018 The Author(s). Published by Informa UK Limited, trading as Taylor &amp; Francis Group.</t>
+          <t>Blacks have been farming in the USA for about four centuries and in Michigan since the 1830s. Yet, for blacks, owning and retaining farmland has been a continuous challenge. This historical analysis uses environmental justice and food sovereignty frameworks to examine the farming experiences of blacks in the USA generally, and more specifically in Michigan. It analyzes land loss, the precipitous decline in the number of black farmers, and the strategies that blacks have used to counteract these phenomena. The paper shows that the ability of blacks to own and operate farms has been negatively impacted by lack of access to credit, segregation, relegation to marginal and hazard-prone land, natural disasters, organized opposition to black land ownership, and systemic discrimination. The paper examines the use of cooperatives and other community-based organizations to help blacks respond to discrimination and environmental inequalities. The paper assesses how the farming experiences of blacks in Michigan compare to the experiences of black farmers elsewhere. It also explores the connections between Michigan’s black farmers, southern black farmer cooperatives, and Detroit’s black consumers. © 2018, The Author(s).</t>
         </is>
       </c>
       <c r="E50" t="n">
@@ -2240,15 +2240,15 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Agroecologies of displacement: a study of land access, dislocation, and migration in relation to sustainable food production in the Beach Flats Community Garden</t>
+          <t>Traditional seed and exchange systems cement social relations and provide a safety net: A case study from KwaZulu-Natal, South Africa</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>In this article, the Beach Flats Community Garden is used as a case study to theorize an “agroecologies of displacement.” We argue that farmers are increasingly less singularly place-based through involuntary displacement and that displacement and dispossession can shape agricultural practices in farming communities. We follow Cohen (2010), Kerssen and Brent (2017), and others in calling for the necessity to bring a historical and focused analysis of displacement, dispossession, and the dynamics of land under capitalist systems to our understanding of the articulations of food movements, in particular transformative agroecologies. © 2018, © 2018 Taylor &amp; Francis.</t>
+          <t>Millions of small-scale farmers on the African continent save and exchange the seed of their traditional crops, yet the social and cultural values of these systems remain under-researched. Through ethnographic research conducted in the KwaZulu-Natal Province of South Africa, this study sets out to improve understanding about the mechanisms and significance of traditional seed exchange networks. Findings suggest that traditional crops are central; their seed is highly valued; and systems of exchange play complex and nuanced roles. Critical for food sovereignty, these systems act as a back-up in the case of harvest failure, and enhance social cohesion through strengthening community and familial ties. © 2017 Taylor &amp; Francis.</t>
         </is>
       </c>
       <c r="E51" t="n">
@@ -2276,15 +2276,15 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Integration model of food security system and food sovereignty system in Indonesia</t>
+          <t>Troubling Tradition, Community, and Self-Reliance: Reframing Expectations for Village Seed Banks</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>This research is important to integrate Food Security system with Food Sovereignty system. Starting from the current condition that the Food Security has not been integrated with Food Sovereignty system yet. It is known that Food Security system is developed by free market economy system, while Food Sovereignty system is determined based on national interest of a country in choosing food system considered suitable to be applied in its country. For the current condition in Indonesia, the food system still refers to the Food Security system. The Government does not have capacity to intervene the market directly and consequently, the number of food imports becomes high and the welfare of farmers slumps. Through this research, it is necessary to arrange and adapt the application of Integrated Model construction of Food Security System Integration and Food Sovereignty to Achieve Sustainable Food Self-Sufficiency in Indonesia. This research was conducted by using juridical-empirical approach which is oriented to holistic study and in its process, legal discipline gets the assistance of related discipline, such as economics, politics, technique, environment, human rights, social, and culture. The analysis of the research object was conducted through legal analysis. in addition to library research, data collection techniques used is field surveys and the analytical technique used is Cost-Benefit-Analysis (CBA).The result of this research is the arrangement of Integration Model Construction of Food Security System and Food Sovereignty to Achieve Sustainable Food Self-Sufficiency in Indonesia. © 2019, Institute of Advanced Scientific Research, Inc.. All rights reserved.</t>
+          <t>Heralded by both food sovereignty activists and mainstream development practitioners, village seed banks are a rural development phenomenon rapidly gaining attention for their potential to support resilient agricultural systems. This paper presents a case study for examining the power of prevailing narratives of decentralized development to shape and ultimately constrain the operations of village seed banks in Telangana, India. This case demonstrates how visions of tradition, community, and self-reliance can serve to discount the materiality of seeds, the social complexity of village institutions, and even the voices of farmers. The goal of this research is not to criticize village seed banks, as they hold great potential, nor to vilify the narratives in question, but rather to encourage critical reflection on how the assumptions embedded in these narratives shape mechanisms for agricultural development. I argue for a shift away from framing tradition, community, and self-reliance as development solutions and propose an interrogative approach that turns these narratives into questions for engaging more effectively with rural livelihoods. © 2017 Elsevier Ltd</t>
         </is>
       </c>
       <c r="E52" t="n">
@@ -2312,15 +2312,15 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Could social farming be a strategy to support food sovereignty in Europe?</t>
+          <t>Building sustainable social and solidarity economies: Place-based and network-based strategies of alternative development organizations in India</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Food sovereignty (FS) aims to obtain value-added products in proximity agriculture (PA) in order to achieve food security in a country. Social farming (SF) can help to develop this PA as well as favoring integration of people at risk of social exclusion (RSE). The methodology includes a review of the literature, a survey of 161 SF projects in Catalonia, and ten selected in-depth interviews. “Social Return on Investment” (SROI) methodology is also applied to assess the efficiency of the projects analyzed. The results show the economic, social, and environmental viability of the majority of the SF projects which, also favored by FS and PA, allows the development of innovative experiences and sustainable forms of governance. SF has been carried out in different ways in European countries, although with the common aims of benefitting people at RSE, and using the natural environment and PA through projects basically promoted by Third Sector entities. Management of these projects is in the hands of foundations and non-profit companies making top-down decisions, and in cooperatives and associations, where decision-making is bottom-up. It can be concluded that the promotion of SF can favor PA, and therefore, FS in Europe. © 2019 by the authors. Licensee MDPI, Basel, Switzerland.</t>
+          <t>This article critically examines and analyzes place-based as well as network-based strategies of alternative development organizations that claim to be building sustainable social and solidarity economies (SSE) in the political context of neoliberal globalization. While the Indian state and market forces are actively promoting the neoliberal agri-food system, alternative development organizations are working with farmers to build the SSE based on the principles of democracy, inclusiveness, reciprocity, cooperativism, and socioecological sustainability. Using a case study approach, this article analyzes how SSE initiatives are aiming to reclaim control over the local agri-food sector. Specifically, this article examines how community development organizations mobilize farmers based on the principles of agro-ecology and the politics of seed and food sovereignties. This article uses the Center for Sustainable Agriculture, an alternative community development organization in south India, as a case study. © 2017 Community Development Society.</t>
         </is>
       </c>
       <c r="E53" t="n">
@@ -2348,15 +2348,15 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Beyond the “special period”: land reform, supermarkets and the prospects for peasant-driven food sovereignty in post-socialist Cuba (2008–2017)</t>
+          <t>Food sovereignty and agro-ecology in Karnataka: interplay of discourses, identities, and practices</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>When Cuba’s trade-based food security strategy was threatened by the collapse of the socialist trading block in 1989–1991, the popular response of small and irregular farmers proved vital in providing a minimum food basket during the ensuing crisis. In 2008, a large-scale land reform sought to expand this development towards food sovereignty. We evaluate the reform impacts, finding that after an initial surge in 2009–2010, food production and land use have rebounded and stagnated at pre-reform levels. Peasant-led agricultural development is forestalled by inaccessibility of appropriate technologies, perceived land tenure insecurity, missing/deficient markets and competition from import-based supermarket chains. © 2019, © 2019 The Author(s). Published by Informa UK Limited, trading as Taylor &amp; Francis Group.</t>
+          <t>Karnataka Rajya Raitha Sangha (KRRS), a farmers’ movement, and a member of La Via Campesina, has been encouraging zero-budget natural farming in Karnataka, India, within the framework of food sovereignty and agro-ecology. Using the experiences of KRRS, this article addresses the question of the extent of pluralism within the discourse of food sovereignty. Focusing on the interplay of local and global practices, discourses and identities, the article throws light upon contradictions and negotiations between “necessary abstractions” and “particularisms”, spaces and places of resistance and implications it may have on struggles at both local and global levels. © 2017 Informa UK Limited, trading as Taylor &amp; Francis Group.</t>
         </is>
       </c>
       <c r="E54" t="n">
@@ -2384,15 +2384,15 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Enhancing smallholder resilience through place-based knowledge and resource generation</t>
+          <t>Livelihoods crises in Vidarbha, India: Food sovereignty through traditional farming systems as a possible solution</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Rice systems are of particular significance to building climate resilience in the Philippines. This research brief summarizes a case study that comparatively measures differences in climate resilience between organic and conventional rice systems in four neighboring villages in Negros Occidental Province, as well as explores features of smallholder rice systems that are significant to building resilience. Data were collected through surveys, interviews, focus groups, and participant observation. A participatory approach was applied to account for socioecological context and to identify targeted interventions for enhancing climate resilience based on local conditions and farmer experiences. The results indicate that (a) of the participating rice systems, organic systems exhibit greater resilience than their conventional counterparts; (b) the current institutional arrangement prevents smallholders from transitioning to organic; and (c) a polycentric food sovereignty development approach helps Philippine smallholders overcome these institutional barriers, as well as builds smallholder capacities for resilience by supporting place-based knowledge and resource generation. More effort is needed to explore, analyze, and strengthen such polycentric food sovereignty interventions for climate change. © 2019 by the Author.</t>
+          <t>The Vidarbha region in Maharashtra, India, home to 3.4 million smallholder farmers, is a major cotton-producing region in one of the wealthiest Indian states. However, between 1995 and 2013, more than 60,000 farmers took their own lives. Many of these suicides have been linked to extreme debt created by the expensive mono-cropping of Bt cotton. Some farming households have responded to these pressures by abandoning Bt cotton growing and turning to sustainable agriculture using traditional mixedcropping methods. Yet the question remains: have the changes produced better livelihoods in Vidarbha? Using a food sovereignty framework, we assess the impact of these changes through an analysis of a 200-household survey across six districts in Vidarbha. We also explore the meaning of food sovereignty for those who practise it, seeking to better understand some of the complexities and experiences associated with the term. © 2017 South Asian Studies Association of Australia.</t>
         </is>
       </c>
       <c r="E55" t="n">
@@ -2420,15 +2420,15 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Agroecology and food sovereignty</t>
+          <t>The Developmental State and Food Sovereignty in Tanzania</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>2019</v>
+        <v>2016</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>We propose that agroecology provides a framework for understanding ‘levels’ for the transition to sustainable food systems. If we agree that agroecology includes social and political dimensions of governing territorial food systems, then it must be linked to movements for food sovereignty. However, the concentration of power in food and farming systems locks in industrial logic, posing immense barriers to agroecological and social transition. This creates a tension between efforts at convergence of food system innovations from below, versus co-optation of grass-roots language and practices by private and public actors who are committed not to changing the logic of industrial agriculture, but instead to reducing its harm. We suggest agroecological and food sovereignty movements consciously embrace this tension as a dance of creativity and appropriation. If this dance can be made generative rather than deadly, it can open pathways for transition to new ways of seeing, experiencing, and getting food. © 2019 The Authors. IDS Bulletin and Institute of Development Studies.</t>
+          <t>Tanzania has been experiencing different periods of food shortages mainly because of insufficient food production. While the country has an undisputable potential for food production, the state and its development partners, such as the World Bank, believe that the unsustainable peasant food production is the main cause of the food crisis. As a panacea to the food crisis, a call for de-peasantization in favour of commercial large-scale farming, is advocated. Inspired by the work of Sam Moyo, this article argues that achieving food self-sufficiency should begin with improving peasant agriculture instead of dispossessing peasants of their land. The principles of food sovereignty must be adopted and the orientation of the state must be developmental. The state must play an activist role in investing heavily in agricultural-related projects. © 2017 SAGE Publications.</t>
         </is>
       </c>
       <c r="E56" t="n">
@@ -2456,7 +2456,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Human ecology and food systems: Insights from the Philippines</t>
+          <t>Is Oil Palm Expansion a Challenge to Agroecology? Smallholders Practising Industrial Farming in Mexico</t>
         </is>
       </c>
       <c r="C57" t="n">
@@ -2464,7 +2464,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Feeding the world sustainably requires balancing social, economic, and environmental concerns. The food systems concept guides the study of social and environmental processes that influence food and nutrition security. Human ecology conceptually offers insights into the social components of a system and its interaction with environmental change. This paper demonstrates how human ecology helps identify the dominant discourses that influence dominant social drivers in food systems. This is done through documenting the historical legacies of agricultural commodity production systems in the Philippines since Spanish colonization, and the human and ecological implications of this history. The analysis shows the presence of a maladaptive system influenced by market-oriented food security as a dominant discourse. Alternative discourses focused on sovereignty and participation exist in the Philippines, however these are often marginalised from dominant policy and research programs. The paper discusses how weak feedback processes provide possible intervention points in policy or farmer-led activities to explore alternative pathways to food and nutrition security. The paper concludes with highlighting how human ecology offers useful framework for advancing food systems analysis into social, political, and policy dimensions of food activities. Such analysis can help develop new research and policies that require managing the competing discourses of how to achieve sustainable food and nutrition security. © 2018, Society for Human Ecology. All rights reserved.</t>
+          <t>Agroecology has become a powerful alternative paradigm for rural development. In contrast to conventional approaches, this paradigm shifts the emphasis from technology and markets to local knowledge, social justice and food sovereignty, to overcome rural poverty and environmental degradation. However, the spread of this approach faces several obstacles. This paper deals with one of these obstacles: the ‘preference’ of smallholders for industrial farming. We specifically analyse the widespread uptake up of oil palm by smallholders in Chiapas. Contrary to agro-ecological assumptions, oil palm proved favourable to smallholders in Chiapas because of historical and contemporary state–peasant relations and the advantageous economic circumstances within the oil palm sector. Based on this research, we identify four challenges for agroecology: (i) the existence of contradictory interests within the peasantry as a result of social differentiation; (ii) the role of the state in making conventional development models relatively favourable to smallholders; (iii) the prevalence of modernization ideologies in many rural areas; and (iv) the need for this paradigm to acknowledge smallholders' agency also when engaged in industrial farming. These challenges need to be tackled for agroecology to offer viable alternatives in a context of agro-industrialization. © 2016 John Wiley &amp; Sons Ltd</t>
         </is>
       </c>
       <c r="E57" t="n">
@@ -2492,15 +2492,15 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>African Green Revolution, food sovereignty and constrained livelihood choice in Mozambique</t>
+          <t>Investor ownership or social investment? Changing farmland ownership in Saskatchewan, Canada</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>This article examines the complicated food security agendas of the African Green Revolution and the food sovereignty models in Mozambique. Drawing on fieldwork conducted by the author in Mozambique in 2014 and 2015, the paper analyses how smallholder farmers engage with these two agrarian models. Whereas the literature frequently presents the African Green Revolution and the food sovereignty in oppositional frames, this paper finds that farmers in Mozambique utilize some of the tools that these models offer in complementary rather than competing ways. One such area is the use of commercial hybrid seeds and herbicides by some farmers associated with food sovereignty, an approach that runs counter to food sovereignty’s principles of agroecology. In Mozambique, farmers’ “lived experience” of food sovereignty is more a strategic response to their limited livelihood options, using whatever tools are available to them, rather than a resistance to power. © 2018, © 2018 Canadian Association of African Studies.</t>
+          <t>There is growing recognition that land grabbing is a global phenomenon. In Canada, investors are particularly interested in Saskatchewan farmland, the province where 40 % of country’s agricultural land is situated. This article examines how the changing political, economic, and legal context under neoliberalism has shaped patterns of farmland ownership in Saskatchewan, between 2002 and 2014. Our research indicates that over this time, the amount of farmland owned by investors increased 16-fold. Also, the concentration of farmland ownership is on the rise, with the share of farmland owned by the largest four private owners increasing six-fold. Our methodology addresses some of the criticisms raised in the land grabbing literature. By using land titles data, we identified farmland investors and determined very precisely their landholdings thus allowing us to provide a fine-grained analysis of the actual patterns of farmland ownership. Although the article analyzes changes to farmland ownership in a specific historical, cultural and legislative context, it serves as the basis for a broader discussion of the values and priorities that land ownership policies reflect. Namely, we contrast an ‘open for business’ approach that prioritizes financial investment to one based on a land sovereignty approach that prioritizes social investment. The latter has greater potential if the aim is ecological sustainability and food sovereignty. © 2016, Springer Science+Business Media Dordrecht.</t>
         </is>
       </c>
       <c r="E58" t="n">
@@ -2528,15 +2528,15 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Communication as Resistance in Food Politics</t>
+          <t>Codesigning a resilient food system</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>The global food system is a site of domination and resistance for those opposed to the conventional model of industrial agriculture. This article applies a political economy of communication lens to the relations of power that operate in the field of food politics where tensions involving food security, peak oil, and anthropogenic climate change present major challenges. At the heart of this trilemma social movements of small-scale farmers contest the dominant narratives that biotechnology, development, and free trade will feed the world. This article describes how farmers’ movements in Brazil, Chile, and Cuba apply resistive epistemologies in to complement for agroecological production methods. The purpose is to develop political consciousness among rural food producers and workers who are subjugated under neo-liberalism. The article also presents the challenges that members of the international farmers’ movement, La Vìa Campesina, face in advancing their political influence through participation in invited spaces such as the UN Food and Agriculture Organisation’s World Committee for Food Security. © The Author 2018</t>
+          <t>Global changes, especially the progression of climate change, create a plethora of adaptation needs for social-ecological systems. With increasing uncertainty, more resilient food systems that are able to adapt and shape their operations in response to emerging challenges are required. Most of the research on this subject has been focused on developing countries; however, developed countries also face increasing environmental, economic, and social pressures. Because food systems are complex and involve multiple actors, using codesign might be the most productive way to develop desirable system characteristics. For this study, we engaged food system actors in a scenario-planning exercise to identify means of building more resilient food systems. In particular, the actors focused on determinants of adaptive capacity in developed countries, with Finland as a case study. The brainstorming session followed by a two-round Delphi study raised three main characteristics for effective food system resilience, namely, energy and nutrient sovereignty, transparency and dialogue in the food chain, and continuous innovativeness and evidence-based learning. In addition, policy interventions were found instrumental for supporting such food system resilience. The main actor-specific determinants of adaptive capacity identified included the farmers’ utilization of agri-technology and expertise; energy and logistic efficiency of the input and processing industry; and for retail, communication to build consumer trust and environmental awareness, and effective use of information and communication technology. Of the food system actors, farmers and the processing industry were perceived to be the closest to reaching the limits of their adaptive capacities. The use of adaptive capacity as a proxy seemed to concretize food system resilience effectively. Our study suggests that the resilience approach generates new perspectives that can guide actors in developing food systems that are adaptive in uncertainty. © 2016 by the author(s).</t>
         </is>
       </c>
       <c r="E59" t="n">
@@ -2564,15 +2564,15 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Food security or food sovereignty?: Questioning the paradigm of Indonesian military involvement in agriculture</t>
+          <t>Food or flowers? Contested transformations of community food security and water use priorities under new legal and market regimes in Ecuador's highlands</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Indonesian military (TNI) involvement in the agricultural sector had begun since the 1960s when they had a significant role in a global modernization of agriculture project led by the US government and world donor agencies, namely the Green Revolution. In 2015, TNI signed a MoU with the Ministry of Agriculture in a "Special Efforts Program for Accelerating Food Production" which again delivers an important role to the military in the agricultural sector by implementing a Green Revolution oriented farming. This paper, in contrasts to some of the previous writings, does not examine the right or wrong of this involvement. This study provides a paradigmatic response to a question, why TNI insists on implementing a program that after 50 years has not proven successful in reaching the target of food self-sufficiency? Based on literature studies and analysis of empirical data, this study suggests that there is a paradigmatic misperception among the policy makers, both civil and military, about food security concept. The authors also offer a new implementation framework based on the concept of food sovereignty that can be performed by policy makers in Indonesia and other developing countries. © 2018 CEJISS.</t>
+          <t>During the past three decades, the Pisque watershed in Ecuador's Northern Andes has become the country's principal export-roses producing area. Recently, a new boom of local smallholders have established small rose greenhouses and joined the flower-export business. This has intensified water scarcity and material/discursive conflicts over water use priorities: water to defend local-national food sovereignty or production for export. This paper examines how including peasant flower farms in the capitalist dream - driven by a 'mimetic desire' and copying large-scale capitalist flower-farm practices and technologies - generates new intra-community conflicts over collective water rights, extending traditional class-based water conflicts. New allocation principles in Ecuador's progressive 2008 Constitution and 2014 Water Law prioritising food production over flowers' industrial water use are unlikely to benefit smallholder communities. Instead, decision-making power for peasant communities and their water users' associations on water use priority would enable water user prioritization according to smallholders' own preferences. © 2016 Elsevier Ltd.</t>
         </is>
       </c>
       <c r="E60" t="n">
@@ -2600,15 +2600,15 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Black Farmers in the USA and Michigan: Longevity, Empowerment, and Food Sovereignty</t>
+          <t>Farmer seed networks make a limited contribution to agriculture? Four common misconceptions</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>2018</v>
+        <v>2015</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Blacks have been farming in the USA for about four centuries and in Michigan since the 1830s. Yet, for blacks, owning and retaining farmland has been a continuous challenge. This historical analysis uses environmental justice and food sovereignty frameworks to examine the farming experiences of blacks in the USA generally, and more specifically in Michigan. It analyzes land loss, the precipitous decline in the number of black farmers, and the strategies that blacks have used to counteract these phenomena. The paper shows that the ability of blacks to own and operate farms has been negatively impacted by lack of access to credit, segregation, relegation to marginal and hazard-prone land, natural disasters, organized opposition to black land ownership, and systemic discrimination. The paper examines the use of cooperatives and other community-based organizations to help blacks respond to discrimination and environmental inequalities. The paper assesses how the farming experiences of blacks in Michigan compare to the experiences of black farmers elsewhere. It also explores the connections between Michigan’s black farmers, southern black farmer cooperatives, and Detroit’s black consumers. © 2018, The Author(s).</t>
+          <t>The importance of seed provisioning in food security and nutrition, agricultural development and rural livelihoods, and agrobiodiversity and germplasm conservation is well accepted by policy makers, practitioners and researchers. The role of farmer seed networks is less well understood and yet is central to debates on current issues ranging from seed sovereignty and rights for farmers to GMOs and the conservation of crop germplasm. In this paper we identify four common misconceptions regarding the nature and importance of farmer seed networks today. (1) Farmer seed networks are inefficient for seed dissemination. (2) Farmer seed networks are closed, conservative systems. (3) Farmer seed networks provide ready, egalitarian access to seed. (4) Farmer seed networks are destined to weaken and disappear. We challenge these misconceptions by drawing upon recent research findings and the authors' collective field experience in studying farmer seed systems in Africa, Europe, Latin America and Oceania. Priorities for future research are suggested that would advance our understanding of seed networks and better inform agricultural and food policy. © 2015 The Authors. Published by Elsevier Ltd.</t>
         </is>
       </c>
       <c r="E61" t="n">
@@ -2636,15 +2636,15 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Traditional seed and exchange systems cement social relations and provide a safety net: A case study from KwaZulu-Natal, South Africa</t>
+          <t>European transitions towards a corporate-environmental food regime: Agroecological incorporation or contestation?</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Millions of small-scale farmers on the African continent save and exchange the seed of their traditional crops, yet the social and cultural values of these systems remain under-researched. Through ethnographic research conducted in the KwaZulu-Natal Province of South Africa, this study sets out to improve understanding about the mechanisms and significance of traditional seed exchange networks. Findings suggest that traditional crops are central; their seed is highly valued; and systems of exchange play complex and nuanced roles. Critical for food sovereignty, these systems act as a back-up in the case of harvest failure, and enhance social cohesion through strengthening community and familial ties. © 2017 Taylor &amp; Francis.</t>
+          <t>The 'food regime' concept helps to analyse potential transitions beyond the agro-industrial regime which has been globally dominant since the 1970s. As its multiple crises generate alternative production methods and products, some have been incorporated into a nascent 'corporate-environmental food regime'. This nascent regime is illustrated here by two agendas prominent in Europe - 'bioeconomy' (Life Sciences) and 'sustainable intensification' (neoproductivism). As a significant difference, the prevalent 'bioeconomy' agenda marginalises agroecological practices, while 'sustainable intensification' selectively incorporates such practices within a broader toolkit including biotech. Regardless of that difference, both agendas reinforce a neoliberal productivist narrative: namely, more resource-efficient methods are necessary for increasing production to fulfill the greater market demand for food, feed, fuel, etc. In this way, the capital-accumulation driver is reified as 'market demand' arising exogenously from the food production system - which thereby accommodates societal needs. By contrast, the agroecology narrative diagnoses the problem as profit-driven agro-industrial monoculture systems making farmers dependent on external inputs, undermining their knowledge, and distancing consumers from agri-producers. Through such a narrative, new alliances have elaborated a different future linking farmers' knowledge-exchange, agroecology, food sovereignty, citizens' initiatives, public knowledge about food production, etc. Civil society organisations have facilitated such linkages among researchers, scientists and social movements. In those ways, contending narratives justify different trajectories for an agro-food transition. Each links different innovation paradigms of technique, quality and knowledge. These differences often remain implicit amidst broad terms such as bioeconomy, sustainable intensification, agroecology, etc. Making the divergences explicit can help contest transitions towards a corporate-environmental food regime, while also counterposing agroecological alternatives. © 2015 Elsevier Ltd.</t>
         </is>
       </c>
       <c r="E62" t="n">
@@ -2672,15 +2672,15 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Troubling Tradition, Community, and Self-Reliance: Reframing Expectations for Village Seed Banks</t>
+          <t>From world hunger to food sovereignty: Food ethics and human development</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Heralded by both food sovereignty activists and mainstream development practitioners, village seed banks are a rural development phenomenon rapidly gaining attention for their potential to support resilient agricultural systems. This paper presents a case study for examining the power of prevailing narratives of decentralized development to shape and ultimately constrain the operations of village seed banks in Telangana, India. This case demonstrates how visions of tradition, community, and self-reliance can serve to discount the materiality of seeds, the social complexity of village institutions, and even the voices of farmers. The goal of this research is not to criticize village seed banks, as they hold great potential, nor to vilify the narratives in question, but rather to encourage critical reflection on how the assumptions embedded in these narratives shape mechanisms for agricultural development. I argue for a shift away from framing tradition, community, and self-reliance as development solutions and propose an interrogative approach that turns these narratives into questions for engaging more effectively with rural livelihoods. © 2017 Elsevier Ltd</t>
+          <t>The role of Amartya Sen's early work on famine notwithstanding, food security is generally seen as but one capability among many for scholars writing in development ethics. The early literature on the ethics of hunger is summarized to show how Sen's Poverty and Famines was written in response to debates of past decades, and a brief discussion of food security as a capability follows. However, Sen's characterization of smallholder food security also supports the development of agency in both a political and an economic sense. Economic agency is discussed and tied to longstanding literatures on the moral significance of farming within political economy. Finally, while the newly emergent literature on food sovereignty includes many themes, it is shown to be re-Articulating arguments that stress smallholder's economic agency as a development goal. This pattern of argument thus provides a way to reconcile at least some of the claims being advanced under the banner of food sovereignty with the human development approach, while also restoring food ethics to a more central place in the overall discourse of development ethics. © 2015 Taylor &amp; Francis.</t>
         </is>
       </c>
       <c r="E63" t="n">
@@ -2708,15 +2708,15 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Building sustainable social and solidarity economies: Place-based and network-based strategies of alternative development organizations in India</t>
+          <t>“We Plant Only Cotton to Maximize Our Earnings”: The Paradox of Food Sovereignty in Rural Telengana, India</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>2018</v>
+        <v>2015</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>This article critically examines and analyzes place-based as well as network-based strategies of alternative development organizations that claim to be building sustainable social and solidarity economies (SSE) in the political context of neoliberal globalization. While the Indian state and market forces are actively promoting the neoliberal agri-food system, alternative development organizations are working with farmers to build the SSE based on the principles of democracy, inclusiveness, reciprocity, cooperativism, and socioecological sustainability. Using a case study approach, this article analyzes how SSE initiatives are aiming to reclaim control over the local agri-food sector. Specifically, this article examines how community development organizations mobilize farmers based on the principles of agro-ecology and the politics of seed and food sovereignties. This article uses the Center for Sustainable Agriculture, an alternative community development organization in south India, as a case study. © 2017 Community Development Society.</t>
+          <t>This article critically examines the role of food sovereignty interventions in the mitigation of the impacts of neoliberal economic policies on poor farmers in the Telengana region of India. Findings based on eighteen months of ethnographic research in the Telengana region reveal that small and poor farmers face socioeconomic and cultural constraints to the adoption of food sovereignty practices and ideals. Food sovereignty prescriptions based on localized, sustainable, and subsistence agriculture paradoxically constrained farmers’ chances of maintaining viable rural livelihoods in a harsh economic climate. Based on these findings, I argue that contrary to assertions by advocates that food sovereignty is a precondition to genuine food security, farmers must first have food and livelihood security to exercise true food sovereignty that allows them more control over their livelihoods. © 2015, © Copyright 2015 by Association of American Geographers.</t>
         </is>
       </c>
       <c r="E64" t="n">
@@ -2744,15 +2744,15 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Food sovereignty and agro-ecology in Karnataka: interplay of discourses, identities, and practices</t>
+          <t>Deconstructing homegardens: food security and sovereignty in northern Nicaragua</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Karnataka Rajya Raitha Sangha (KRRS), a farmers’ movement, and a member of La Via Campesina, has been encouraging zero-budget natural farming in Karnataka, India, within the framework of food sovereignty and agro-ecology. Using the experiences of KRRS, this article addresses the question of the extent of pluralism within the discourse of food sovereignty. Focusing on the interplay of local and global practices, discourses and identities, the article throws light upon contradictions and negotiations between “necessary abstractions” and “particularisms”, spaces and places of resistance and implications it may have on struggles at both local and global levels. © 2017 Informa UK Limited, trading as Taylor &amp; Francis Group.</t>
+          <t>Development scholars and practitioners are promoting food security, food sovereignty, and the localization of food systems to prepare for the projected negative impacts of climate change. The implementation of biodiverse homegardens is often seen as a way not only to localize food production but also as a strategy in alignment with a food sovereignty agenda. While much scholarship has characterized and critiqued food security and sovereignty conceptualizations, relatively little research has examined people’s lived experiences in order to test how such theoretical visions play out on the ground in farming communities. Based on a case study of four coffee cooperatives in northern Nicaragua, we examine a non-governmental organization (NGO)-supported project promoting food security and sovereignty through development of homegardens. We ask: To what extent are homegardens an effective strategy to reach food sovereignty? And, why may farmers be resistant to changing their food production and consumption strategies to embrace biodiverse homegardens when they improve food security? We discuss characteristics of agroecological homegardens, the distinctions between food security, food sovereignty and dominant discourses of development, the history of food sovereignty in Nicaragua, and farmer perspectives on homegarden implementation. Despite historic critiques, NGOs are poised to facilitate the transformation of food and agricultural development by employing counter development strategies, a necessary step if homegardens are to be successful in the long term. To conclude, we propose some strategies NGOs and communities might pursue to move forward with homegardens as a food sovereignty strategy. This research suggests that a food sovereignty approach still rooted in mainstream development models faces significant obstacles to moving beyond food security and into a farmer-led food sovereignty agenda. © 2015, Springer Science+Business Media Dordrecht.</t>
         </is>
       </c>
       <c r="E65" t="n">
@@ -2769,438 +2769,6 @@
         </is>
       </c>
       <c r="H65" t="inlineStr">
-        <is>
-          <t>_</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="1" t="n">
-        <v>64</v>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>Livelihoods crises in Vidarbha, India: Food sovereignty through traditional farming systems as a possible solution</t>
-        </is>
-      </c>
-      <c r="C66" t="n">
-        <v>2017</v>
-      </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>The Vidarbha region in Maharashtra, India, home to 3.4 million smallholder farmers, is a major cotton-producing region in one of the wealthiest Indian states. However, between 1995 and 2013, more than 60,000 farmers took their own lives. Many of these suicides have been linked to extreme debt created by the expensive mono-cropping of Bt cotton. Some farming households have responded to these pressures by abandoning Bt cotton growing and turning to sustainable agriculture using traditional mixedcropping methods. Yet the question remains: have the changes produced better livelihoods in Vidarbha? Using a food sovereignty framework, we assess the impact of these changes through an analysis of a 200-household survey across six districts in Vidarbha. We also explore the meaning of food sovereignty for those who practise it, seeking to better understand some of the complexities and experiences associated with the term. © 2017 South Asian Studies Association of Australia.</t>
-        </is>
-      </c>
-      <c r="E66" t="n">
-        <v>1</v>
-      </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>_</t>
-        </is>
-      </c>
-      <c r="G66" t="inlineStr">
-        <is>
-          <t>_</t>
-        </is>
-      </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>_</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="1" t="n">
-        <v>65</v>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>The Evolution of Food Security Governance and Food Sovereignty Movement in China: An Analysis from the World Society Theory</t>
-        </is>
-      </c>
-      <c r="C67" t="n">
-        <v>2017</v>
-      </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>Originating in a 1983 Mexican Government Program, the term ‘food sovereignty’ was coined in 1996 by La Via Campesina—a global peasant network—to address concerns within the civil society for food security. Rather than to accept the neoliberal framework of mainstream food security definition and governance, the food sovereignty movement seeks to view food security as the right of peoples to define their own food and agriculture systems with limited corporation intervention. As a result, food production should be geared toward the domestic and local markets and not toward international trade that only benefits corporations. This food sovereignty movement was inducted into China in 2013 just as China’s agricultural systems were shifting toward a more corporate-centric structure that increasingly exploits the small-scale farmers. A question was hence raised: How have the global civil society networks influenced the Chinese civil society and promoted China’s local food sovereignty movement? Through the world society theory, the author has identified social forums, such as international conferences and social media channels, as an expedient means for interactions. However, as the Chinese government continues to develop a corporate-centric food security governance system and tighten its civil society space, the impacts of China’s food sovereignty movement remain unclear. © 2017, Springer Science+Business Media B.V.</t>
-        </is>
-      </c>
-      <c r="E67" t="n">
-        <v>1</v>
-      </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>_</t>
-        </is>
-      </c>
-      <c r="G67" t="inlineStr">
-        <is>
-          <t>_</t>
-        </is>
-      </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>_</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="1" t="n">
-        <v>66</v>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>The Developmental State and Food Sovereignty in Tanzania</t>
-        </is>
-      </c>
-      <c r="C68" t="n">
-        <v>2016</v>
-      </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>Tanzania has been experiencing different periods of food shortages mainly because of insufficient food production. While the country has an undisputable potential for food production, the state and its development partners, such as the World Bank, believe that the unsustainable peasant food production is the main cause of the food crisis. As a panacea to the food crisis, a call for de-peasantization in favour of commercial large-scale farming, is advocated. Inspired by the work of Sam Moyo, this article argues that achieving food self-sufficiency should begin with improving peasant agriculture instead of dispossessing peasants of their land. The principles of food sovereignty must be adopted and the orientation of the state must be developmental. The state must play an activist role in investing heavily in agricultural-related projects. © 2017 SAGE Publications.</t>
-        </is>
-      </c>
-      <c r="E68" t="n">
-        <v>1</v>
-      </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>_</t>
-        </is>
-      </c>
-      <c r="G68" t="inlineStr">
-        <is>
-          <t>_</t>
-        </is>
-      </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>_</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="1" t="n">
-        <v>67</v>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>Is Oil Palm Expansion a Challenge to Agroecology? Smallholders Practising Industrial Farming in Mexico</t>
-        </is>
-      </c>
-      <c r="C69" t="n">
-        <v>2018</v>
-      </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>Agroecology has become a powerful alternative paradigm for rural development. In contrast to conventional approaches, this paradigm shifts the emphasis from technology and markets to local knowledge, social justice and food sovereignty, to overcome rural poverty and environmental degradation. However, the spread of this approach faces several obstacles. This paper deals with one of these obstacles: the ‘preference’ of smallholders for industrial farming. We specifically analyse the widespread uptake up of oil palm by smallholders in Chiapas. Contrary to agro-ecological assumptions, oil palm proved favourable to smallholders in Chiapas because of historical and contemporary state–peasant relations and the advantageous economic circumstances within the oil palm sector. Based on this research, we identify four challenges for agroecology: (i) the existence of contradictory interests within the peasantry as a result of social differentiation; (ii) the role of the state in making conventional development models relatively favourable to smallholders; (iii) the prevalence of modernization ideologies in many rural areas; and (iv) the need for this paradigm to acknowledge smallholders' agency also when engaged in industrial farming. These challenges need to be tackled for agroecology to offer viable alternatives in a context of agro-industrialization. © 2016 John Wiley &amp; Sons Ltd</t>
-        </is>
-      </c>
-      <c r="E69" t="n">
-        <v>1</v>
-      </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>_</t>
-        </is>
-      </c>
-      <c r="G69" t="inlineStr">
-        <is>
-          <t>_</t>
-        </is>
-      </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>_</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="1" t="n">
-        <v>68</v>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>Investor ownership or social investment? Changing farmland ownership in Saskatchewan, Canada</t>
-        </is>
-      </c>
-      <c r="C70" t="n">
-        <v>2017</v>
-      </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>There is growing recognition that land grabbing is a global phenomenon. In Canada, investors are particularly interested in Saskatchewan farmland, the province where 40 % of country’s agricultural land is situated. This article examines how the changing political, economic, and legal context under neoliberalism has shaped patterns of farmland ownership in Saskatchewan, between 2002 and 2014. Our research indicates that over this time, the amount of farmland owned by investors increased 16-fold. Also, the concentration of farmland ownership is on the rise, with the share of farmland owned by the largest four private owners increasing six-fold. Our methodology addresses some of the criticisms raised in the land grabbing literature. By using land titles data, we identified farmland investors and determined very precisely their landholdings thus allowing us to provide a fine-grained analysis of the actual patterns of farmland ownership. Although the article analyzes changes to farmland ownership in a specific historical, cultural and legislative context, it serves as the basis for a broader discussion of the values and priorities that land ownership policies reflect. Namely, we contrast an ‘open for business’ approach that prioritizes financial investment to one based on a land sovereignty approach that prioritizes social investment. The latter has greater potential if the aim is ecological sustainability and food sovereignty. © 2016, Springer Science+Business Media Dordrecht.</t>
-        </is>
-      </c>
-      <c r="E70" t="n">
-        <v>1</v>
-      </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>_</t>
-        </is>
-      </c>
-      <c r="G70" t="inlineStr">
-        <is>
-          <t>_</t>
-        </is>
-      </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>_</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="1" t="n">
-        <v>69</v>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>Codesigning a resilient food system</t>
-        </is>
-      </c>
-      <c r="C71" t="n">
-        <v>2016</v>
-      </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>Global changes, especially the progression of climate change, create a plethora of adaptation needs for social-ecological systems. With increasing uncertainty, more resilient food systems that are able to adapt and shape their operations in response to emerging challenges are required. Most of the research on this subject has been focused on developing countries; however, developed countries also face increasing environmental, economic, and social pressures. Because food systems are complex and involve multiple actors, using codesign might be the most productive way to develop desirable system characteristics. For this study, we engaged food system actors in a scenario-planning exercise to identify means of building more resilient food systems. In particular, the actors focused on determinants of adaptive capacity in developed countries, with Finland as a case study. The brainstorming session followed by a two-round Delphi study raised three main characteristics for effective food system resilience, namely, energy and nutrient sovereignty, transparency and dialogue in the food chain, and continuous innovativeness and evidence-based learning. In addition, policy interventions were found instrumental for supporting such food system resilience. The main actor-specific determinants of adaptive capacity identified included the farmers’ utilization of agri-technology and expertise; energy and logistic efficiency of the input and processing industry; and for retail, communication to build consumer trust and environmental awareness, and effective use of information and communication technology. Of the food system actors, farmers and the processing industry were perceived to be the closest to reaching the limits of their adaptive capacities. The use of adaptive capacity as a proxy seemed to concretize food system resilience effectively. Our study suggests that the resilience approach generates new perspectives that can guide actors in developing food systems that are adaptive in uncertainty. © 2016 by the author(s).</t>
-        </is>
-      </c>
-      <c r="E71" t="n">
-        <v>1</v>
-      </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>_</t>
-        </is>
-      </c>
-      <c r="G71" t="inlineStr">
-        <is>
-          <t>_</t>
-        </is>
-      </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>_</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="1" t="n">
-        <v>70</v>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>Food or flowers? Contested transformations of community food security and water use priorities under new legal and market regimes in Ecuador's highlands</t>
-        </is>
-      </c>
-      <c r="C72" t="n">
-        <v>2016</v>
-      </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>During the past three decades, the Pisque watershed in Ecuador's Northern Andes has become the country's principal export-roses producing area. Recently, a new boom of local smallholders have established small rose greenhouses and joined the flower-export business. This has intensified water scarcity and material/discursive conflicts over water use priorities: water to defend local-national food sovereignty or production for export. This paper examines how including peasant flower farms in the capitalist dream - driven by a 'mimetic desire' and copying large-scale capitalist flower-farm practices and technologies - generates new intra-community conflicts over collective water rights, extending traditional class-based water conflicts. New allocation principles in Ecuador's progressive 2008 Constitution and 2014 Water Law prioritising food production over flowers' industrial water use are unlikely to benefit smallholder communities. Instead, decision-making power for peasant communities and their water users' associations on water use priority would enable water user prioritization according to smallholders' own preferences. © 2016 Elsevier Ltd.</t>
-        </is>
-      </c>
-      <c r="E72" t="n">
-        <v>1</v>
-      </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>_</t>
-        </is>
-      </c>
-      <c r="G72" t="inlineStr">
-        <is>
-          <t>_</t>
-        </is>
-      </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>_</t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="1" t="n">
-        <v>71</v>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>Farmer seed networks make a limited contribution to agriculture? Four common misconceptions</t>
-        </is>
-      </c>
-      <c r="C73" t="n">
-        <v>2015</v>
-      </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>The importance of seed provisioning in food security and nutrition, agricultural development and rural livelihoods, and agrobiodiversity and germplasm conservation is well accepted by policy makers, practitioners and researchers. The role of farmer seed networks is less well understood and yet is central to debates on current issues ranging from seed sovereignty and rights for farmers to GMOs and the conservation of crop germplasm. In this paper we identify four common misconceptions regarding the nature and importance of farmer seed networks today. (1) Farmer seed networks are inefficient for seed dissemination. (2) Farmer seed networks are closed, conservative systems. (3) Farmer seed networks provide ready, egalitarian access to seed. (4) Farmer seed networks are destined to weaken and disappear. We challenge these misconceptions by drawing upon recent research findings and the authors' collective field experience in studying farmer seed systems in Africa, Europe, Latin America and Oceania. Priorities for future research are suggested that would advance our understanding of seed networks and better inform agricultural and food policy. © 2015 The Authors. Published by Elsevier Ltd.</t>
-        </is>
-      </c>
-      <c r="E73" t="n">
-        <v>1</v>
-      </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>_</t>
-        </is>
-      </c>
-      <c r="G73" t="inlineStr">
-        <is>
-          <t>_</t>
-        </is>
-      </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>_</t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="1" t="n">
-        <v>72</v>
-      </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>European transitions towards a corporate-environmental food regime: Agroecological incorporation or contestation?</t>
-        </is>
-      </c>
-      <c r="C74" t="n">
-        <v>2015</v>
-      </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>The 'food regime' concept helps to analyse potential transitions beyond the agro-industrial regime which has been globally dominant since the 1970s. As its multiple crises generate alternative production methods and products, some have been incorporated into a nascent 'corporate-environmental food regime'. This nascent regime is illustrated here by two agendas prominent in Europe - 'bioeconomy' (Life Sciences) and 'sustainable intensification' (neoproductivism). As a significant difference, the prevalent 'bioeconomy' agenda marginalises agroecological practices, while 'sustainable intensification' selectively incorporates such practices within a broader toolkit including biotech. Regardless of that difference, both agendas reinforce a neoliberal productivist narrative: namely, more resource-efficient methods are necessary for increasing production to fulfill the greater market demand for food, feed, fuel, etc. In this way, the capital-accumulation driver is reified as 'market demand' arising exogenously from the food production system - which thereby accommodates societal needs. By contrast, the agroecology narrative diagnoses the problem as profit-driven agro-industrial monoculture systems making farmers dependent on external inputs, undermining their knowledge, and distancing consumers from agri-producers. Through such a narrative, new alliances have elaborated a different future linking farmers' knowledge-exchange, agroecology, food sovereignty, citizens' initiatives, public knowledge about food production, etc. Civil society organisations have facilitated such linkages among researchers, scientists and social movements. In those ways, contending narratives justify different trajectories for an agro-food transition. Each links different innovation paradigms of technique, quality and knowledge. These differences often remain implicit amidst broad terms such as bioeconomy, sustainable intensification, agroecology, etc. Making the divergences explicit can help contest transitions towards a corporate-environmental food regime, while also counterposing agroecological alternatives. © 2015 Elsevier Ltd.</t>
-        </is>
-      </c>
-      <c r="E74" t="n">
-        <v>1</v>
-      </c>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>_</t>
-        </is>
-      </c>
-      <c r="G74" t="inlineStr">
-        <is>
-          <t>_</t>
-        </is>
-      </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>_</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="1" t="n">
-        <v>73</v>
-      </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>From world hunger to food sovereignty: Food ethics and human development</t>
-        </is>
-      </c>
-      <c r="C75" t="n">
-        <v>2015</v>
-      </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>The role of Amartya Sen's early work on famine notwithstanding, food security is generally seen as but one capability among many for scholars writing in development ethics. The early literature on the ethics of hunger is summarized to show how Sen's Poverty and Famines was written in response to debates of past decades, and a brief discussion of food security as a capability follows. However, Sen's characterization of smallholder food security also supports the development of agency in both a political and an economic sense. Economic agency is discussed and tied to longstanding literatures on the moral significance of farming within political economy. Finally, while the newly emergent literature on food sovereignty includes many themes, it is shown to be re-Articulating arguments that stress smallholder's economic agency as a development goal. This pattern of argument thus provides a way to reconcile at least some of the claims being advanced under the banner of food sovereignty with the human development approach, while also restoring food ethics to a more central place in the overall discourse of development ethics. © 2015 Taylor &amp; Francis.</t>
-        </is>
-      </c>
-      <c r="E75" t="n">
-        <v>1</v>
-      </c>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>_</t>
-        </is>
-      </c>
-      <c r="G75" t="inlineStr">
-        <is>
-          <t>_</t>
-        </is>
-      </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>_</t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="1" t="n">
-        <v>74</v>
-      </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>“We Plant Only Cotton to Maximize Our Earnings”: The Paradox of Food Sovereignty in Rural Telengana, India</t>
-        </is>
-      </c>
-      <c r="C76" t="n">
-        <v>2015</v>
-      </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>This article critically examines the role of food sovereignty interventions in the mitigation of the impacts of neoliberal economic policies on poor farmers in the Telengana region of India. Findings based on eighteen months of ethnographic research in the Telengana region reveal that small and poor farmers face socioeconomic and cultural constraints to the adoption of food sovereignty practices and ideals. Food sovereignty prescriptions based on localized, sustainable, and subsistence agriculture paradoxically constrained farmers’ chances of maintaining viable rural livelihoods in a harsh economic climate. Based on these findings, I argue that contrary to assertions by advocates that food sovereignty is a precondition to genuine food security, farmers must first have food and livelihood security to exercise true food sovereignty that allows them more control over their livelihoods. © 2015, © Copyright 2015 by Association of American Geographers.</t>
-        </is>
-      </c>
-      <c r="E76" t="n">
-        <v>1</v>
-      </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>_</t>
-        </is>
-      </c>
-      <c r="G76" t="inlineStr">
-        <is>
-          <t>_</t>
-        </is>
-      </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>_</t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="1" t="n">
-        <v>75</v>
-      </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>Deconstructing homegardens: food security and sovereignty in northern Nicaragua</t>
-        </is>
-      </c>
-      <c r="C77" t="n">
-        <v>2016</v>
-      </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>Development scholars and practitioners are promoting food security, food sovereignty, and the localization of food systems to prepare for the projected negative impacts of climate change. The implementation of biodiverse homegardens is often seen as a way not only to localize food production but also as a strategy in alignment with a food sovereignty agenda. While much scholarship has characterized and critiqued food security and sovereignty conceptualizations, relatively little research has examined people’s lived experiences in order to test how such theoretical visions play out on the ground in farming communities. Based on a case study of four coffee cooperatives in northern Nicaragua, we examine a non-governmental organization (NGO)-supported project promoting food security and sovereignty through development of homegardens. We ask: To what extent are homegardens an effective strategy to reach food sovereignty? And, why may farmers be resistant to changing their food production and consumption strategies to embrace biodiverse homegardens when they improve food security? We discuss characteristics of agroecological homegardens, the distinctions between food security, food sovereignty and dominant discourses of development, the history of food sovereignty in Nicaragua, and farmer perspectives on homegarden implementation. Despite historic critiques, NGOs are poised to facilitate the transformation of food and agricultural development by employing counter development strategies, a necessary step if homegardens are to be successful in the long term. To conclude, we propose some strategies NGOs and communities might pursue to move forward with homegardens as a food sovereignty strategy. This research suggests that a food sovereignty approach still rooted in mainstream development models faces significant obstacles to moving beyond food security and into a farmer-led food sovereignty agenda. © 2015, Springer Science+Business Media Dordrecht.</t>
-        </is>
-      </c>
-      <c r="E77" t="n">
-        <v>1</v>
-      </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>_</t>
-        </is>
-      </c>
-      <c r="G77" t="inlineStr">
-        <is>
-          <t>_</t>
-        </is>
-      </c>
-      <c r="H77" t="inlineStr">
         <is>
           <t>_</t>
         </is>
